--- a/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
+++ b/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-brazil\InputData\trans\SYFAFE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gngna\Documents\Cenergia\EPS\Furada Camila\eps-brazil\InputData\trans\SYFAFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8C99E2-3F6F-4C9D-85E2-DE1F1E4FA0ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="742"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -36,12 +37,14 @@
     <definedName name="ti_tbl_69" localSheetId="5">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -249,14 +252,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="###0.00_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0_)"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.000E+00"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="###0.00_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0_)"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -941,33 +944,33 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="8">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="8">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="8">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1099,7 +1102,7 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="8">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0">
@@ -1154,14 +1157,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1180,159 +1183,159 @@
     <xf numFmtId="11" fontId="41" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="153">
-    <cellStyle name="20% - Accent1 2" xfId="8"/>
-    <cellStyle name="20% - Accent2 2" xfId="9"/>
-    <cellStyle name="20% - Accent3 2" xfId="10"/>
-    <cellStyle name="20% - Accent4 2" xfId="11"/>
-    <cellStyle name="20% - Accent5 2" xfId="12"/>
-    <cellStyle name="20% - Accent6 2" xfId="13"/>
-    <cellStyle name="40% - Accent1 2" xfId="14"/>
-    <cellStyle name="40% - Accent2 2" xfId="15"/>
-    <cellStyle name="40% - Accent3 2" xfId="16"/>
-    <cellStyle name="40% - Accent4 2" xfId="17"/>
-    <cellStyle name="40% - Accent5 2" xfId="18"/>
-    <cellStyle name="40% - Accent6 2" xfId="19"/>
-    <cellStyle name="60% - Accent1 2" xfId="20"/>
-    <cellStyle name="60% - Accent2 2" xfId="21"/>
-    <cellStyle name="60% - Accent3 2" xfId="22"/>
-    <cellStyle name="60% - Accent4 2" xfId="23"/>
-    <cellStyle name="60% - Accent5 2" xfId="24"/>
-    <cellStyle name="60% - Accent6 2" xfId="25"/>
-    <cellStyle name="Accent1 2" xfId="26"/>
-    <cellStyle name="Accent2 2" xfId="27"/>
-    <cellStyle name="Accent3 2" xfId="28"/>
-    <cellStyle name="Accent4 2" xfId="29"/>
-    <cellStyle name="Accent5 2" xfId="30"/>
-    <cellStyle name="Accent6 2" xfId="31"/>
-    <cellStyle name="Bad 2" xfId="32"/>
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Body: normal cell 2" xfId="33"/>
-    <cellStyle name="Calculation 2" xfId="34"/>
-    <cellStyle name="Check Cell 2" xfId="35"/>
-    <cellStyle name="Column heading" xfId="36"/>
-    <cellStyle name="Comma 2" xfId="37"/>
-    <cellStyle name="Comma 2 2" xfId="38"/>
-    <cellStyle name="Comma 3" xfId="39"/>
-    <cellStyle name="Comma 4" xfId="40"/>
-    <cellStyle name="Comma 5" xfId="41"/>
-    <cellStyle name="Comma 6" xfId="42"/>
-    <cellStyle name="Comma 7" xfId="43"/>
-    <cellStyle name="Comma 8" xfId="44"/>
-    <cellStyle name="Corner heading" xfId="45"/>
-    <cellStyle name="Currency 2" xfId="46"/>
-    <cellStyle name="Currency 3" xfId="47"/>
-    <cellStyle name="Currency 3 2" xfId="48"/>
-    <cellStyle name="Data" xfId="49"/>
-    <cellStyle name="Data 2" xfId="50"/>
-    <cellStyle name="Data no deci" xfId="51"/>
-    <cellStyle name="Data Superscript" xfId="52"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="53"/>
-    <cellStyle name="Explanatory Text 2" xfId="54"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55"/>
-    <cellStyle name="Footnotes: top row" xfId="2"/>
-    <cellStyle name="Footnotes: top row 2" xfId="56"/>
-    <cellStyle name="Good 2" xfId="57"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
-    <cellStyle name="Header: bottom row 2" xfId="58"/>
-    <cellStyle name="Heading 1 2" xfId="59"/>
-    <cellStyle name="Heading 2 2" xfId="60"/>
-    <cellStyle name="Heading 3 2" xfId="61"/>
-    <cellStyle name="Heading 4 2" xfId="62"/>
-    <cellStyle name="Hed Side" xfId="63"/>
-    <cellStyle name="Hed Side 2" xfId="64"/>
-    <cellStyle name="Hed Side bold" xfId="65"/>
-    <cellStyle name="Hed Side Indent" xfId="66"/>
-    <cellStyle name="Hed Side Regular" xfId="67"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="68"/>
-    <cellStyle name="Hed Top" xfId="69"/>
-    <cellStyle name="Hed Top - SECTION" xfId="70"/>
-    <cellStyle name="Hed Top_3-new4" xfId="71"/>
-    <cellStyle name="Hyperlink 2" xfId="72"/>
-    <cellStyle name="Input 2" xfId="73"/>
-    <cellStyle name="Linked Cell 2" xfId="74"/>
-    <cellStyle name="Neutral 2" xfId="75"/>
+    <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Calculation 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Check Cell 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Column heading" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Comma 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Comma 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Comma 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Comma 4" xfId="40" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Comma 5" xfId="41" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Comma 6" xfId="42" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Comma 7" xfId="43" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Comma 8" xfId="44" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Corner heading" xfId="45" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Currency 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Currency 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Currency 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Data" xfId="49" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Data 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Data no deci" xfId="51" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Data Superscript" xfId="52" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="53" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="54" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Footnotes: top row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Good 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Heading 1 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Heading 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Heading 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Heading 4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Hed Side" xfId="63" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Hed Side 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Hed Side bold" xfId="65" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Hed Side Indent" xfId="66" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Hed Side Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="68" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Hed Top" xfId="69" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Hed Top - SECTION" xfId="70" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Hed Top_3-new4" xfId="71" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Input 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Neutral 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="76"/>
-    <cellStyle name="Normal 11" xfId="77"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="78"/>
-    <cellStyle name="Normal 2 3" xfId="79"/>
-    <cellStyle name="Normal 3" xfId="80"/>
-    <cellStyle name="Normal 3 2" xfId="81"/>
-    <cellStyle name="Normal 3 2 2" xfId="82"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="83"/>
-    <cellStyle name="Normal 3 2 3" xfId="84"/>
-    <cellStyle name="Normal 3 3" xfId="85"/>
-    <cellStyle name="Normal 3 3 2" xfId="86"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="87"/>
-    <cellStyle name="Normal 3 3 3" xfId="88"/>
-    <cellStyle name="Normal 3 4" xfId="89"/>
-    <cellStyle name="Normal 3 4 2" xfId="90"/>
-    <cellStyle name="Normal 3 5" xfId="91"/>
-    <cellStyle name="Normal 3 6" xfId="92"/>
-    <cellStyle name="Normal 3 7" xfId="93"/>
-    <cellStyle name="Normal 4" xfId="94"/>
-    <cellStyle name="Normal 4 2" xfId="95"/>
-    <cellStyle name="Normal 4 2 2" xfId="96"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="97"/>
-    <cellStyle name="Normal 4 2 3" xfId="98"/>
-    <cellStyle name="Normal 4 3" xfId="99"/>
-    <cellStyle name="Normal 4 3 2" xfId="100"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="101"/>
-    <cellStyle name="Normal 4 3 3" xfId="102"/>
-    <cellStyle name="Normal 4 4" xfId="103"/>
-    <cellStyle name="Normal 4 4 2" xfId="104"/>
-    <cellStyle name="Normal 4 5" xfId="105"/>
-    <cellStyle name="Normal 4 6" xfId="106"/>
-    <cellStyle name="Normal 4 7" xfId="107"/>
-    <cellStyle name="Normal 5" xfId="108"/>
-    <cellStyle name="Normal 5 2" xfId="109"/>
-    <cellStyle name="Normal 5 3" xfId="110"/>
-    <cellStyle name="Normal 6" xfId="111"/>
-    <cellStyle name="Normal 6 2" xfId="112"/>
-    <cellStyle name="Normal 7" xfId="113"/>
-    <cellStyle name="Normal 7 2" xfId="114"/>
-    <cellStyle name="Normal 8" xfId="115"/>
-    <cellStyle name="Normal 9" xfId="116"/>
-    <cellStyle name="Note 2" xfId="117"/>
-    <cellStyle name="Note 2 2" xfId="118"/>
-    <cellStyle name="Output 2" xfId="119"/>
-    <cellStyle name="Parent row" xfId="3"/>
-    <cellStyle name="Parent row 2" xfId="120"/>
-    <cellStyle name="Percent 2" xfId="121"/>
-    <cellStyle name="Percent 2 2" xfId="122"/>
-    <cellStyle name="Percent 3" xfId="123"/>
-    <cellStyle name="Percent 3 2" xfId="124"/>
-    <cellStyle name="Percent 4" xfId="125"/>
-    <cellStyle name="Reference" xfId="126"/>
-    <cellStyle name="Row heading" xfId="127"/>
-    <cellStyle name="Source Hed" xfId="128"/>
-    <cellStyle name="Source Letter" xfId="129"/>
-    <cellStyle name="Source Superscript" xfId="130"/>
-    <cellStyle name="Source Superscript 2" xfId="131"/>
-    <cellStyle name="Source Text" xfId="132"/>
-    <cellStyle name="Source Text 2" xfId="133"/>
-    <cellStyle name="State" xfId="134"/>
-    <cellStyle name="Superscript" xfId="135"/>
-    <cellStyle name="Table Data" xfId="136"/>
-    <cellStyle name="Table Head Top" xfId="137"/>
-    <cellStyle name="Table Hed Side" xfId="138"/>
-    <cellStyle name="Table title" xfId="7"/>
-    <cellStyle name="Table title 2" xfId="139"/>
-    <cellStyle name="Title 2" xfId="140"/>
-    <cellStyle name="Title Text" xfId="141"/>
-    <cellStyle name="Title Text 1" xfId="142"/>
-    <cellStyle name="Title Text 2" xfId="143"/>
-    <cellStyle name="Title-1" xfId="144"/>
-    <cellStyle name="Title-2" xfId="145"/>
-    <cellStyle name="Title-3" xfId="146"/>
-    <cellStyle name="Total 2" xfId="147"/>
-    <cellStyle name="Warning Text 2" xfId="148"/>
-    <cellStyle name="Wrap" xfId="149"/>
-    <cellStyle name="Wrap Bold" xfId="150"/>
-    <cellStyle name="Wrap Title" xfId="151"/>
-    <cellStyle name="Wrap_NTS99-~11" xfId="152"/>
+    <cellStyle name="Normal 10" xfId="76" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Normal 11" xfId="77" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Normal 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Normal 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Normal 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normal 3 4" xfId="89" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 3 5" xfId="91" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 3 6" xfId="92" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 3 7" xfId="93" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 4" xfId="94" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 4 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 4 2 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 4 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 4 3 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 4 3 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 4 4" xfId="103" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 4 4 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 4 5" xfId="105" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 4 6" xfId="106" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 4 7" xfId="107" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 5 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 5 3" xfId="110" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 6" xfId="111" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 6 2" xfId="112" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 7" xfId="113" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 7 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 8" xfId="115" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Normal 9" xfId="116" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Note 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Note 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Output 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Parent row 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Percent 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Percent 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Percent 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Percent 3 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Percent 4" xfId="125" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Reference" xfId="126" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Row heading" xfId="127" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Source Hed" xfId="128" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Source Letter" xfId="129" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Source Superscript" xfId="130" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Source Superscript 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Source Text" xfId="132" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Source Text 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="State" xfId="134" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Superscript" xfId="135" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Table Data" xfId="136" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Table Head Top" xfId="137" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Table Hed Side" xfId="138" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Table title 2" xfId="139" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Title 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Title Text" xfId="141" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Title Text 1" xfId="142" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Title Text 2" xfId="143" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Title-1" xfId="144" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Title-2" xfId="145" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Title-3" xfId="146" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Total 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Warning Text 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Wrap" xfId="149" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Wrap Bold" xfId="150" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Wrap Title" xfId="151" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Wrap_NTS99-~11" xfId="152" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1429,7 +1432,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1504,6 +1507,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1539,6 +1559,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1714,17 +1751,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" customWidth="1"/>
-    <col min="2" max="2" width="107.3984375" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="107.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1826,16 +1863,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.3984375" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1923,16 +1960,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BT18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:BT13"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.86328125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -2178,37 +2215,37 @@
       <c r="X2" s="12"/>
       <c r="Y2" s="15"/>
       <c r="Z2" s="14">
-        <v>2.0273428221899286E-5</v>
+        <v>2.6355456688469071E-4</v>
       </c>
       <c r="AA2" s="14">
-        <v>4.0546856443798572E-5</v>
+        <v>2.6355456688469071E-4</v>
       </c>
       <c r="AB2" s="14">
-        <v>6.0820284665697858E-5</v>
+        <v>2.6355456688469071E-4</v>
       </c>
       <c r="AC2" s="14">
-        <v>8.1093712887597144E-5</v>
+        <v>2.6355456688469071E-4</v>
       </c>
       <c r="AD2" s="14">
-        <v>1.0136714110949642E-4</v>
+        <v>2.6355456688469071E-4</v>
       </c>
       <c r="AE2" s="14">
-        <v>1.216405693313957E-4</v>
+        <v>2.6355456688469071E-4</v>
       </c>
       <c r="AF2" s="14">
-        <v>1.4191399755329498E-4</v>
+        <v>2.6355456688469071E-4</v>
       </c>
       <c r="AG2" s="14">
-        <v>1.6218742577519426E-4</v>
+        <v>2.6355456688469071E-4</v>
       </c>
       <c r="AH2" s="14">
-        <v>1.8246085399709354E-4</v>
+        <v>2.6355456688469071E-4</v>
       </c>
       <c r="AI2" s="14">
-        <v>2.0273428221899282E-4</v>
+        <v>2.6355456688469071E-4</v>
       </c>
       <c r="AJ2" s="14">
-        <v>2.230077104408921E-4</v>
+        <v>2.6355456688469071E-4</v>
       </c>
       <c r="AK2" s="14">
         <v>2.6355456688469071E-4</v>
@@ -2349,40 +2386,40 @@
       <c r="W3" s="12"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="14">
-        <v>2.3042283446730118E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="Z3" s="14">
-        <v>2.4395926371969503E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="AA3" s="14">
-        <v>2.5749569297208889E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="AB3" s="14">
-        <v>2.7103212222448275E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="AC3" s="14">
-        <v>2.8456855147687661E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="AD3" s="14">
-        <v>2.9810498072927046E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="AE3" s="14">
-        <v>3.1164140998166432E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="AF3" s="14">
-        <v>3.2517783923405818E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="AG3" s="14">
-        <v>3.3871426848645203E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="AH3" s="14">
-        <v>3.5225069773884589E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="AI3" s="14">
-        <v>3.6578712699123975E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="AJ3" s="14">
-        <v>3.7932355624363361E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="AK3" s="14">
         <v>4.0639641474842121E-4</v>
@@ -2514,67 +2551,67 @@
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
       <c r="P4" s="14">
-        <v>8.2462678444605397E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="Q4" s="14">
-        <v>8.2462678444605397E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="R4" s="14">
-        <v>8.2462678444605397E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="S4" s="14">
-        <v>8.2462678444605397E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="T4" s="14">
-        <v>8.2462678444605397E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="U4" s="14">
-        <v>8.2462678444605397E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="V4" s="14">
-        <v>8.2462678444605397E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="W4" s="14">
-        <v>8.8343450560586273E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="X4" s="14">
-        <v>9.4224222676567149E-4</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="Y4" s="14">
-        <v>1.0010499479254802E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="Z4" s="14">
-        <v>1.0598576690852889E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="AA4" s="14">
-        <v>1.1186653902450978E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="AB4" s="14">
-        <v>1.1774731114049064E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="AC4" s="14">
-        <v>1.2362808325647153E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="AD4" s="14">
-        <v>1.2950885537245241E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="AE4" s="14">
-        <v>1.353896274884333E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="AF4" s="14">
-        <v>1.4127039960441417E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="AG4" s="14">
-        <v>1.4715117172039503E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="AH4" s="14">
-        <v>1.5303194383637592E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="AI4" s="14">
-        <v>1.5891271595235678E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="AJ4" s="14">
-        <v>1.6479348806833767E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="AK4" s="14">
         <v>1.7655503230029938E-3</v>
@@ -2701,88 +2738,88 @@
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="14">
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="L5" s="14">
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="M5" s="14">
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="N5" s="14">
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="O5" s="14">
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="P5" s="14">
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="Q5" s="14">
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="R5" s="14">
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="S5" s="14">
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="T5" s="14">
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="U5" s="14">
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="V5" s="14">
-        <v>6.8252955322291439E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="W5" s="14">
-        <v>7.3120370303994325E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="X5" s="14">
-        <v>7.7987785285697211E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="Y5" s="14">
-        <v>8.2855200267400097E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="Z5" s="14">
-        <v>8.7722615249102983E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AA5" s="14">
-        <v>9.2590030230805869E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AB5" s="14">
-        <v>9.7457445212508756E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AC5" s="14">
-        <v>1.0232486019421164E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AD5" s="14">
-        <v>1.0719227517591453E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AE5" s="14">
-        <v>1.1205969015761741E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AF5" s="14">
-        <v>1.169271051393203E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AG5" s="14">
-        <v>1.2179452012102319E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AH5" s="14">
-        <v>1.2666193510272607E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AI5" s="14">
-        <v>1.3152935008442896E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AJ5" s="14">
-        <v>1.3639676506613184E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AK5" s="24">
-        <v>1.461315950295376E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AL5" s="24">
-        <v>1.4759291097983297E-3</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="AM5" s="25">
         <v>1.4906884008963129E-3</v>
@@ -2907,76 +2944,76 @@
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="16">
-        <v>8.9036933147232898E-5</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="P6" s="16">
-        <v>9.1309980917225406E-5</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="Q6" s="16">
-        <v>9.3583028687217913E-5</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="R6" s="16">
-        <v>9.5856076457210421E-5</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="S6" s="16">
-        <v>9.8129124227203796E-5</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="T6" s="16">
-        <v>1.004021719971963E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="U6" s="16">
-        <v>1.0267521976718881E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="V6" s="16">
-        <v>1.0494826753718132E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="W6" s="16">
-        <v>1.0722131530717469E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="X6" s="16">
-        <v>1.094943630771672E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="Y6" s="16">
-        <v>1.1176741084715971E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="Z6" s="16">
-        <v>1.1404045861715222E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="AA6" s="16">
-        <v>1.1631350638714472E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="AB6" s="16">
-        <v>1.185865541571381E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="AC6" s="16">
-        <v>1.2085960192713061E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="AD6" s="16">
-        <v>1.2313264969712311E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="AE6" s="16">
-        <v>1.2540569746711562E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="AF6" s="16">
-        <v>1.27678745237109E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="AG6" s="16">
-        <v>1.299517930071015E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="AH6" s="16">
-        <v>1.3222484077709401E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="AI6" s="16">
-        <v>1.3449788854708652E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="AJ6" s="16">
-        <v>1.3677093631707903E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="AK6" s="24">
-        <v>1.4152360440753146E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="AL6" s="24">
-        <v>1.4336341126482935E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="AM6" s="25">
         <v>1.4522713561127213E-4</v>
@@ -3101,70 +3138,70 @@
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
       <c r="O7" s="16">
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="P7" s="16">
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="Q7" s="16">
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="R7" s="16">
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="S7" s="16">
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="T7" s="16">
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="U7" s="16">
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="V7" s="16">
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="W7" s="16">
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="X7" s="16">
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="Y7" s="16">
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="Z7" s="16">
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="AA7" s="16">
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="AB7" s="16">
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="AC7" s="16">
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="AD7" s="16">
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="AE7" s="16">
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="AF7" s="16">
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="AG7" s="16">
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="AH7" s="16">
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="AI7" s="16">
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="AJ7" s="16">
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076455E-4</v>
       </c>
       <c r="AK7" s="24">
         <v>1.1104183387076455E-4</v>
@@ -3285,106 +3322,106 @@
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="F8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="G8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="H8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="I8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="J8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="K8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="L8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="M8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="N8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="O8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="P8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="Q8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="R8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="S8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="T8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="U8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="V8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="W8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="X8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="Y8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="Z8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="AA8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="AB8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="AC8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="AD8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="AE8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="AF8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="AG8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="AH8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="AI8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="AJ8" s="16">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="AK8" s="24">
-        <v>2.812562520651618E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="AL8" s="24">
-        <v>3.0375675223037477E-3</v>
+        <v>3.2805729240880477E-3</v>
       </c>
       <c r="AM8" s="25">
         <v>3.2805729240880477E-3</v>
@@ -3499,106 +3536,106 @@
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="16">
-        <v>1.4691408670862577E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="F9" s="16">
-        <v>1.4592271545838982E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="G9" s="16">
-        <v>1.4493134420815387E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="H9" s="16">
-        <v>1.4393997295791792E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="I9" s="16">
-        <v>1.4294860170768198E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="J9" s="16">
-        <v>1.4195723045744603E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="K9" s="16">
-        <v>1.4096585920721008E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="L9" s="16">
-        <v>1.3997448795697413E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="M9" s="16">
-        <v>1.3898311670673819E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="N9" s="16">
-        <v>1.3799174545650189E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="O9" s="16">
-        <v>1.3700037420626594E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="P9" s="16">
-        <v>1.3600900295603E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="Q9" s="16">
-        <v>1.3501763170579405E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="R9" s="16">
-        <v>1.340262604555581E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="S9" s="16">
-        <v>1.3303488920532215E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="T9" s="16">
-        <v>1.320435179550862E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="U9" s="16">
-        <v>1.3105214670485026E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="V9" s="16">
-        <v>1.3006077545461431E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="W9" s="16">
-        <v>1.2906940420437836E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="X9" s="16">
-        <v>1.2807803295414207E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="Y9" s="16">
-        <v>1.2708666170390612E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="Z9" s="16">
-        <v>1.2609529045367017E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="AA9" s="16">
-        <v>1.2510391920343422E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="AB9" s="16">
-        <v>1.2411254795319827E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="AC9" s="16">
-        <v>1.2312117670296233E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="AD9" s="16">
-        <v>1.2212980545272638E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="AE9" s="16">
-        <v>1.2113843420249043E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="AF9" s="16">
-        <v>1.2014706295225448E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="AG9" s="16">
-        <v>1.1915569170201853E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="AH9" s="16">
-        <v>1.1816432045178224E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="AI9" s="16">
-        <v>1.1717294920154629E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="AJ9" s="16">
-        <v>1.1618157795131034E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="AK9" s="24">
-        <v>1.1609415177744277E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="AL9" s="24">
-        <v>1.1493321025966834E-3</v>
+        <v>1.1378387815707165E-3</v>
       </c>
       <c r="AM9" s="25">
         <v>1.1378387815707165E-3</v>
@@ -4154,49 +4191,49 @@
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
       <c r="V12" s="16">
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="W12" s="16">
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="X12" s="16">
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="Y12" s="16">
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="Z12" s="16">
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="AA12" s="16">
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="AB12" s="16">
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="AC12" s="16">
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="AD12" s="16">
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="AE12" s="16">
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="AF12" s="16">
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="AG12" s="16">
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="AH12" s="16">
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="AI12" s="16">
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="AJ12" s="16">
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="AK12" s="24">
         <v>5.9683256416215671E-4</v>
@@ -4512,22 +4549,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.265625" customWidth="1"/>
-    <col min="2" max="2" width="21.73046875" customWidth="1"/>
-    <col min="3" max="3" width="18.265625" customWidth="1"/>
-    <col min="4" max="5" width="16.73046875" customWidth="1"/>
-    <col min="6" max="6" width="20.59765625" customWidth="1"/>
-    <col min="7" max="7" width="16.73046875" customWidth="1"/>
-    <col min="8" max="8" width="16.265625" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -4989,7 +5026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -4999,18 +5036,18 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.86328125" customWidth="1"/>
-    <col min="2" max="2" width="21.73046875" customWidth="1"/>
-    <col min="3" max="3" width="18.265625" customWidth="1"/>
-    <col min="4" max="5" width="16.73046875" customWidth="1"/>
-    <col min="6" max="6" width="20.59765625" customWidth="1"/>
-    <col min="7" max="7" width="16.73046875" customWidth="1"/>
-    <col min="8" max="8" width="16.59765625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42.75">
+    <row r="1" spans="1:8" ht="45">
       <c r="A1" s="18" t="s">
         <v>57</v>
       </c>
@@ -5074,31 +5111,31 @@
       </c>
       <c r="B3" s="11">
         <f>$E3/(1-'Calculations Etc'!$B$3)*'Calibration Adjustments'!B20</f>
-        <v>3.7755635867325367E-3</v>
+        <v>5.6735511893623858E-3</v>
       </c>
       <c r="C3" s="11">
         <f>$E3*'Calibration Adjustments'!C20</f>
-        <v>1.1749162539631758E-3</v>
+        <v>1.7655503230029946E-3</v>
       </c>
       <c r="D3" s="11">
         <f>$E3*'Calibration Adjustments'!D20</f>
-        <v>1.1749162539631758E-3</v>
+        <v>1.7655503230029946E-3</v>
       </c>
       <c r="E3" s="11">
         <f>AVERAGE('BHNVFEAL data'!P4:AL4)*'Calibration Adjustments'!E20</f>
-        <v>1.1749162539631758E-3</v>
+        <v>1.7655503230029946E-3</v>
       </c>
       <c r="F3" s="11">
         <f>$E3/(1-'Calculations Etc'!$B$3)*'Calculations Etc'!$B$6+$E3*(1-'Calculations Etc'!$B$6)*'Calibration Adjustments'!F20</f>
-        <v>2.6052722869863241E-3</v>
+        <v>3.9149507995006596E-3</v>
       </c>
       <c r="G3" s="11">
         <f>$E3*'Calibration Adjustments'!G20</f>
-        <v>1.1749162539631758E-3</v>
+        <v>1.7655503230029946E-3</v>
       </c>
       <c r="H3" s="11">
         <f>D3*'Calculations Etc'!$B$11</f>
-        <v>2.9372906349079395E-3</v>
+        <v>4.4138758075074865E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5116,7 +5153,7 @@
       </c>
       <c r="E4" s="16">
         <f>AVERAGE('BHNVFEAL data'!O6:AL6)*'Calibration Adjustments'!E21</f>
-        <v>1.1536556582415808E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5134,7 +5171,7 @@
       </c>
       <c r="B5" s="16">
         <f>AVERAGE('BHNVFEAL data'!E8:AL8)*'Calibration Adjustments'!E22</f>
-        <v>2.8191803148178581E-3</v>
+        <v>3.2805729240880481E-3</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5221,7 +5258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -5231,17 +5268,17 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.3984375" customWidth="1"/>
-    <col min="2" max="2" width="21.73046875" customWidth="1"/>
-    <col min="3" max="3" width="18.265625" customWidth="1"/>
-    <col min="4" max="5" width="16.73046875" customWidth="1"/>
-    <col min="6" max="6" width="20.59765625" customWidth="1"/>
-    <col min="7" max="8" width="16.73046875" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="8" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42.75">
+    <row r="1" spans="1:8" ht="45">
       <c r="A1" s="18" t="s">
         <v>60</v>
       </c>
@@ -5273,31 +5310,31 @@
       </c>
       <c r="B2" s="11">
         <f>$D2/(1-'Calculations Etc'!$B$2)*'Calibration Adjustments'!B28</f>
-        <v>1.0169620526790536E-3</v>
+        <v>1.29405174169892E-3</v>
       </c>
       <c r="C2" s="11">
         <f>$D2*'Calibration Adjustments'!C28</f>
-        <v>3.1937651241160367E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="D2" s="11">
         <f>AVERAGE('BHNVFEAL data'!Y3:AL3)*'Calibration Adjustments'!D28</f>
-        <v>3.1937651241160367E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="E2" s="11">
         <f>$D2*'Calibration Adjustments'!E28</f>
-        <v>3.1937651241160367E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="F2" s="11">
         <f>$D2/(1-'Calculations Etc'!$B$2)*'Calculations Etc'!$B$6+$D2*(1-'Calculations Etc'!$B$6)*'Calibration Adjustments'!F28</f>
-        <v>7.0304855955870109E-4</v>
+        <v>8.9460684457119558E-4</v>
       </c>
       <c r="G2" s="11">
         <f>$D2*'Calibration Adjustments'!G28</f>
-        <v>3.1937651241160367E-4</v>
+        <v>4.0639641474842121E-4</v>
       </c>
       <c r="H2" s="11">
         <f>D2*'Calculations Etc'!$B$11</f>
-        <v>7.9844128102900919E-4</v>
+        <v>1.015991036871053E-3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5306,31 +5343,31 @@
       </c>
       <c r="B3" s="11">
         <f>$E3/(1-'Calculations Etc'!$B$3)*'Calibration Adjustments'!B29</f>
-        <v>2.9602756974290586E-3</v>
+        <v>4.7902893730543891E-3</v>
       </c>
       <c r="C3" s="11">
         <f>$E3*'Calibration Adjustments'!C29</f>
-        <v>9.2120711338133953E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="D3" s="11">
         <f>$E3*'Calibration Adjustments'!D29</f>
-        <v>9.2120711338133953E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="E3" s="11">
         <f>AVERAGE('BHNVFEAL data'!K5:AL5)*'Calibration Adjustments'!E29</f>
-        <v>9.2120711338133953E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="F3" s="11">
         <f>$E3/(1-'Calculations Etc'!$B$3)*'Calculations Etc'!$B$6+$E3*(1-'Calculations Etc'!$B$6)*'Calibration Adjustments'!F29</f>
-        <v>2.0426948346075851E-3</v>
+        <v>3.3054689355832547E-3</v>
       </c>
       <c r="G3" s="11">
         <f>$E3*'Calibration Adjustments'!G29</f>
-        <v>9.2120711338133953E-4</v>
+        <v>1.4906884008963129E-3</v>
       </c>
       <c r="H3" s="11">
         <f>D3*'Calculations Etc'!$B$11</f>
-        <v>2.3030177834533487E-3</v>
+        <v>3.7267210022407823E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5348,7 +5385,7 @@
       </c>
       <c r="E4" s="16">
         <f>AVERAGE('BHNVFEAL data'!O6:AL6)*'Calibration Adjustments'!E30</f>
-        <v>1.1536556582415808E-4</v>
+        <v>1.4522713561127213E-4</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5359,7 +5396,7 @@
       </c>
       <c r="H4">
         <f>AVERAGE('BHNVFEAL data'!R7:AK7)*'Calibration Adjustments'!H30</f>
-        <v>1.110418338707646E-4</v>
+        <v>1.1104183387076459E-4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5368,7 +5405,7 @@
       </c>
       <c r="B5" s="16">
         <f>E5*'Calculations Etc'!B3</f>
-        <v>8.9961834560015042E-4</v>
+        <v>7.8375514659900422E-4</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5378,7 +5415,7 @@
       </c>
       <c r="E5" s="16">
         <f>AVERAGE('BHNVFEAL data'!E9:AL9)*'Calibration Adjustments'!E31</f>
-        <v>1.3060464695870857E-3</v>
+        <v>1.1378387815707159E-3</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5389,7 +5426,7 @@
       </c>
       <c r="H5">
         <f>AVERAGE('BHNVFEAL data'!D9:AK9)*'Calibration Adjustments'!H31</f>
-        <v>1.310795389798916E-3</v>
+        <v>1.1378387815707161E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8">

--- a/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
+++ b/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gngna\Documents\Cenergia\EPS\Furada Camila\eps-brazil\InputData\trans\SYFAFE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Brazil\Model\InputData\trans\SYFAFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8C99E2-3F6F-4C9D-85E2-DE1F1E4FA0ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4D52E2-6B8E-48CE-98ED-26883ABC1BC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41055" yWindow="1005" windowWidth="25725" windowHeight="9030" tabRatio="742" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="ti_tbl_69" localSheetId="5">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -254,12 +254,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="###0.00_)"/>
-    <numFmt numFmtId="167" formatCode="#,##0_)"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.000E+00"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="###0.00_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0_)"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -944,33 +944,33 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="8">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="8">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="8">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1102,7 +1102,7 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="8">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0">
@@ -1157,14 +1157,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1432,7 +1432,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1754,14 +1754,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="107.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" customWidth="1"/>
+    <col min="2" max="2" width="107.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1870,9 +1870,9 @@
       <selection activeCell="B8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" customWidth="1"/>
+    <col min="1" max="1" width="50.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1964,12 +1964,12 @@
   <dimension ref="A1:BT18"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -2215,145 +2215,145 @@
       <c r="X2" s="12"/>
       <c r="Y2" s="15"/>
       <c r="Z2" s="14">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="AA2" s="14">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="AB2" s="14">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="AC2" s="14">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="AD2" s="14">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="AE2" s="14">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="AF2" s="14">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="AG2" s="14">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="AH2" s="14">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="AI2" s="14">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="AJ2" s="14">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="AK2" s="14">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="AL2" s="14">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="AM2" s="22">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="AN2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="AO2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="AP2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="AQ2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="AR2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="AS2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="AT2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="AU2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="AV2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="AW2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="AX2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="AY2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="AZ2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="BA2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="BB2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="BC2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="BD2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="BE2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="BF2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="BG2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="BH2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="BI2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="BJ2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="BK2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="BL2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="BM2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="BN2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="BO2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="BP2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="BQ2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="BR2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="BS2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
       <c r="BT2" s="23">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586355E-4</v>
       </c>
     </row>
     <row r="3" spans="1:72">
@@ -2386,148 +2386,148 @@
       <c r="W3" s="12"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="14">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="Z3" s="14">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="AA3" s="14">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="AB3" s="14">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="AC3" s="14">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="AD3" s="14">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="AE3" s="14">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="AF3" s="14">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="AG3" s="14">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="AH3" s="14">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="AI3" s="14">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="AJ3" s="14">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="AK3" s="14">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="AL3" s="14">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="AM3" s="22">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="AN3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="AO3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="AP3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="AQ3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="AR3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="AS3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="AT3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="AU3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="AV3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="AW3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="AX3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="AY3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="AZ3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="BA3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="BB3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="BC3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="BD3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="BE3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="BF3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="BG3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="BH3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="BI3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="BJ3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="BK3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="BL3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="BM3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="BN3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="BO3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="BP3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="BQ3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="BR3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="BS3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="BT3" s="23">
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
     </row>
     <row r="4" spans="1:72">
@@ -2738,190 +2738,190 @@
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="14">
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="L5" s="14">
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="M5" s="14">
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="N5" s="14">
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="O5" s="14">
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="P5" s="14">
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="Q5" s="14">
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="R5" s="14">
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="S5" s="14">
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="T5" s="14">
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="U5" s="14">
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="V5" s="14">
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="W5" s="14">
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="X5" s="14">
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="Y5" s="14">
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="Z5" s="14">
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="AA5" s="14">
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="AB5" s="14">
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="AC5" s="14">
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="AD5" s="14">
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="AE5" s="14">
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="AF5" s="14">
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="AG5" s="14">
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="AH5" s="14">
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="AI5" s="14">
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="AJ5" s="14">
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="AK5" s="24">
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="AL5" s="24">
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="AM5" s="25">
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="AN5" s="20">
-        <v>1.505595284905276E-3</v>
+        <v>4.7669240021157392E-4</v>
       </c>
       <c r="AO5" s="20">
-        <v>1.5206512377543288E-3</v>
+        <v>4.8145932421368964E-4</v>
       </c>
       <c r="AP5" s="20">
-        <v>1.535857750131872E-3</v>
+        <v>4.8627391745582654E-4</v>
       </c>
       <c r="AQ5" s="20">
-        <v>1.5512163276331908E-3</v>
+        <v>4.9113665663038481E-4</v>
       </c>
       <c r="AR5" s="20">
-        <v>1.5667284909095228E-3</v>
+        <v>4.9604802319668862E-4</v>
       </c>
       <c r="AS5" s="20">
-        <v>1.582395775818618E-3</v>
+        <v>5.0100850342865548E-4</v>
       </c>
       <c r="AT5" s="20">
-        <v>1.5982197335768042E-3</v>
+        <v>5.0601858846294201E-4</v>
       </c>
       <c r="AU5" s="20">
-        <v>1.6142019309125723E-3</v>
+        <v>5.110787743475714E-4</v>
       </c>
       <c r="AV5" s="20">
-        <v>1.630343950221698E-3</v>
+        <v>5.1618956209104712E-4</v>
       </c>
       <c r="AW5" s="20">
-        <v>1.646647389723915E-3</v>
+        <v>5.2135145771195761E-4</v>
       </c>
       <c r="AX5" s="20">
-        <v>1.6631138636211541E-3</v>
+        <v>5.2656497228907714E-4</v>
       </c>
       <c r="AY5" s="20">
-        <v>1.6797450022573656E-3</v>
+        <v>5.3183062201196793E-4</v>
       </c>
       <c r="AZ5" s="20">
-        <v>1.6965424522799393E-3</v>
+        <v>5.3714892823208764E-4</v>
       </c>
       <c r="BA5" s="20">
-        <v>1.7135078768027387E-3</v>
+        <v>5.4252041751440857E-4</v>
       </c>
       <c r="BB5" s="20">
-        <v>1.7306429555707661E-3</v>
+        <v>5.4794562168955269E-4</v>
       </c>
       <c r="BC5" s="20">
-        <v>1.7479493851264738E-3</v>
+        <v>5.5342507790644819E-4</v>
       </c>
       <c r="BD5" s="20">
-        <v>1.7654288789777386E-3</v>
+        <v>5.5895932868551266E-4</v>
       </c>
       <c r="BE5" s="20">
-        <v>1.783083167767516E-3</v>
+        <v>5.6454892197236781E-4</v>
       </c>
       <c r="BF5" s="20">
-        <v>1.8009139994451912E-3</v>
+        <v>5.7019441119209155E-4</v>
       </c>
       <c r="BG5" s="20">
-        <v>1.8189231394396431E-3</v>
+        <v>5.7589635530401245E-4</v>
       </c>
       <c r="BH5" s="20">
-        <v>1.8371123708340396E-3</v>
+        <v>5.8165531885705256E-4</v>
       </c>
       <c r="BI5" s="20">
-        <v>1.8554834945423799E-3</v>
+        <v>5.874718720456231E-4</v>
       </c>
       <c r="BJ5" s="20">
-        <v>1.8740383294878038E-3</v>
+        <v>5.9334659076607931E-4</v>
       </c>
       <c r="BK5" s="20">
-        <v>1.8927787127826817E-3</v>
+        <v>5.9928005667374013E-4</v>
       </c>
       <c r="BL5" s="20">
-        <v>1.9117064999105086E-3</v>
+        <v>6.0527285724047751E-4</v>
       </c>
       <c r="BM5" s="20">
-        <v>1.9308235649096138E-3</v>
+        <v>6.1132558581288227E-4</v>
       </c>
       <c r="BN5" s="20">
-        <v>1.9501318005587099E-3</v>
+        <v>6.1743884167101109E-4</v>
       </c>
       <c r="BO5" s="20">
-        <v>1.969633118564297E-3</v>
+        <v>6.236132300877212E-4</v>
       </c>
       <c r="BP5" s="20">
-        <v>1.9893294497499402E-3</v>
+        <v>6.2984936238859844E-4</v>
       </c>
       <c r="BQ5" s="20">
-        <v>2.0092227442474395E-3</v>
+        <v>6.3614785601248441E-4</v>
       </c>
       <c r="BR5" s="20">
-        <v>2.0293149716899138E-3</v>
+        <v>6.4250933457260929E-4</v>
       </c>
       <c r="BS5" s="20">
-        <v>2.0496081214068131E-3</v>
+        <v>6.4893442791833541E-4</v>
       </c>
       <c r="BT5" s="20">
-        <v>2.0701042026208811E-3</v>
+        <v>6.5542377219751874E-4</v>
       </c>
     </row>
     <row r="6" spans="1:72">
@@ -2944,178 +2944,178 @@
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="16">
-        <v>1.4522713561127213E-4</v>
+        <v>5.3600722376299557E-4</v>
       </c>
       <c r="P6" s="16">
-        <v>1.4522713561127213E-4</v>
+        <v>5.3600722376299557E-4</v>
       </c>
       <c r="Q6" s="16">
-        <v>1.4522713561127213E-4</v>
+        <v>5.3600722376299557E-4</v>
       </c>
       <c r="R6" s="16">
-        <v>1.4522713561127213E-4</v>
+        <v>5.3600722376299557E-4</v>
       </c>
       <c r="S6" s="16">
-        <v>1.4522713561127213E-4</v>
+        <v>5.3600722376299557E-4</v>
       </c>
       <c r="T6" s="16">
-        <v>1.4522713561127213E-4</v>
+        <v>5.3600722376299557E-4</v>
       </c>
       <c r="U6" s="16">
-        <v>1.4522713561127213E-4</v>
+        <v>5.3600722376299557E-4</v>
       </c>
       <c r="V6" s="16">
-        <v>1.4522713561127213E-4</v>
+        <v>5.3600722376299557E-4</v>
       </c>
       <c r="W6" s="16">
-        <v>1.4522713561127213E-4</v>
+        <v>5.3600722376299557E-4</v>
       </c>
       <c r="X6" s="16">
-        <v>1.4522713561127213E-4</v>
+        <v>5.3600722376299557E-4</v>
       </c>
       <c r="Y6" s="16">
-        <v>1.4522713561127213E-4</v>
+        <v>5.3600722376299557E-4</v>
       </c>
       <c r="Z6" s="16">
-        <v>1.4522713561127213E-4</v>
+        <v>5.3600722376299557E-4</v>
       </c>
       <c r="AA6" s="16">
-        <v>1.4522713561127213E-4</v>
+        <v>5.3600722376299557E-4</v>
       </c>
       <c r="AB6" s="16">
-        <v>1.4522713561127213E-4</v>
+        <v>5.3600722376299557E-4</v>
       </c>
       <c r="AC6" s="16">
-        <v>1.4522713561127213E-4</v>
+        <v>5.3600722376299557E-4</v>
       </c>
       <c r="AD6" s="16">
-        <v>1.4522713561127213E-4</v>
+        <v>5.3600722376299557E-4</v>
       </c>
       <c r="AE6" s="16">
-        <v>1.4522713561127213E-4</v>
+        <v>5.3600722376299557E-4</v>
       </c>
       <c r="AF6" s="16">
-        <v>1.4522713561127213E-4</v>
+        <v>5.3600722376299557E-4</v>
       </c>
       <c r="AG6" s="16">
-        <v>1.4522713561127213E-4</v>
+        <v>5.3600722376299557E-4</v>
       </c>
       <c r="AH6" s="16">
-        <v>1.4522713561127213E-4</v>
+        <v>5.3600722376299557E-4</v>
       </c>
       <c r="AI6" s="16">
-        <v>1.4522713561127213E-4</v>
+        <v>5.3600722376299557E-4</v>
       </c>
       <c r="AJ6" s="16">
-        <v>1.4522713561127213E-4</v>
+        <v>5.3600722376299557E-4</v>
       </c>
       <c r="AK6" s="24">
-        <v>1.4522713561127213E-4</v>
+        <v>5.3600722376299557E-4</v>
       </c>
       <c r="AL6" s="24">
-        <v>1.4522713561127213E-4</v>
+        <v>5.3600722376299557E-4</v>
       </c>
       <c r="AM6" s="25">
-        <v>1.4522713561127213E-4</v>
+        <v>5.3600722376299557E-4</v>
       </c>
       <c r="AN6" s="20">
-        <v>1.4711508837421866E-4</v>
+        <v>5.3614827829556472E-4</v>
       </c>
       <c r="AO6" s="20">
-        <v>1.4902758452308348E-4</v>
+        <v>5.3628936994774769E-4</v>
       </c>
       <c r="AP6" s="20">
-        <v>1.5096494312188355E-4</v>
+        <v>5.364304987293128E-4</v>
       </c>
       <c r="AQ6" s="20">
-        <v>1.5292748738246804E-4</v>
+        <v>5.3657166465003099E-4</v>
       </c>
       <c r="AR6" s="20">
-        <v>1.549155447184401E-4</v>
+        <v>5.3671286771967569E-4</v>
       </c>
       <c r="AS6" s="20">
-        <v>1.5692944679977981E-4</v>
+        <v>5.3685410794802294E-4</v>
       </c>
       <c r="AT6" s="20">
-        <v>1.5896952960817694E-4</v>
+        <v>5.3699538534485126E-4</v>
       </c>
       <c r="AU6" s="20">
-        <v>1.6103613349308321E-4</v>
+        <v>5.3713669991994201E-4</v>
       </c>
       <c r="AV6" s="20">
-        <v>1.6312960322849328E-4</v>
+        <v>5.372780516830788E-4</v>
       </c>
       <c r="AW6" s="20">
-        <v>1.6525028807046367E-4</v>
+        <v>5.3741944064404797E-4</v>
       </c>
       <c r="AX6" s="20">
-        <v>1.673985418153797E-4</v>
+        <v>5.3756086681263845E-4</v>
       </c>
       <c r="AY6" s="20">
-        <v>1.6957472285897962E-4</v>
+        <v>5.3770233019864169E-4</v>
       </c>
       <c r="AZ6" s="20">
-        <v>1.7177919425614635E-4</v>
+        <v>5.378438308118518E-4</v>
       </c>
       <c r="BA6" s="20">
-        <v>1.7401232378147624E-4</v>
+        <v>5.3798536866206544E-4</v>
       </c>
       <c r="BB6" s="20">
-        <v>1.7627448399063541E-4</v>
+        <v>5.3812694375908173E-4</v>
       </c>
       <c r="BC6" s="20">
-        <v>1.7856605228251364E-4</v>
+        <v>5.382685561127025E-4</v>
       </c>
       <c r="BD6" s="20">
-        <v>1.8088741096218631E-4</v>
+        <v>5.3841020573273208E-4</v>
       </c>
       <c r="BE6" s="20">
-        <v>1.8323894730469471E-4</v>
+        <v>5.3855189262897753E-4</v>
       </c>
       <c r="BF6" s="20">
-        <v>1.8562105361965572E-4</v>
+        <v>5.3869361681124826E-4</v>
       </c>
       <c r="BG6" s="20">
-        <v>1.8803412731671122E-4</v>
+        <v>5.3883537828935642E-4</v>
       </c>
       <c r="BH6" s="20">
-        <v>1.9047857097182844E-4</v>
+        <v>5.3897717707311675E-4</v>
       </c>
       <c r="BI6" s="20">
-        <v>1.929547923944622E-4</v>
+        <v>5.3911901317234647E-4</v>
       </c>
       <c r="BJ6" s="20">
-        <v>1.954632046955902E-4</v>
+        <v>5.3926088659686543E-4</v>
       </c>
       <c r="BK6" s="20">
-        <v>1.9800422635663284E-4</v>
+        <v>5.3940279735649617E-4</v>
       </c>
       <c r="BL6" s="20">
-        <v>2.0057828129926904E-4</v>
+        <v>5.3954474546106363E-4</v>
       </c>
       <c r="BM6" s="20">
-        <v>2.0318579895615952E-4</v>
+        <v>5.3968673092039544E-4</v>
       </c>
       <c r="BN6" s="20">
-        <v>2.0582721434258958E-4</v>
+        <v>5.3982875374432185E-4</v>
       </c>
       <c r="BO6" s="20">
-        <v>2.0850296812904322E-4</v>
+        <v>5.399708139426756E-4</v>
       </c>
       <c r="BP6" s="20">
-        <v>2.1121350671472077E-4</v>
+        <v>5.4011291152529202E-4</v>
       </c>
       <c r="BQ6" s="20">
-        <v>2.1395928230201212E-4</v>
+        <v>5.4025504650200918E-4</v>
       </c>
       <c r="BR6" s="20">
-        <v>2.1674075297193826E-4</v>
+        <v>5.4039721888266749E-4</v>
       </c>
       <c r="BS6" s="20">
-        <v>2.1955838276057344E-4</v>
+        <v>5.4053942867711023E-4</v>
       </c>
       <c r="BT6" s="20">
-        <v>2.2241264173646088E-4</v>
+        <v>5.4068167589518313E-4</v>
       </c>
     </row>
     <row r="7" spans="1:72">
@@ -3138,178 +3138,178 @@
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
       <c r="O7" s="16">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="P7" s="16">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="Q7" s="16">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="R7" s="16">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="S7" s="16">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="T7" s="16">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="U7" s="16">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="V7" s="16">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="W7" s="16">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="X7" s="16">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="Y7" s="16">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="Z7" s="16">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="AA7" s="16">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="AB7" s="16">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="AC7" s="16">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="AD7" s="16">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="AE7" s="16">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="AF7" s="16">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="AG7" s="16">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="AH7" s="16">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="AI7" s="16">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="AJ7" s="16">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="AK7" s="24">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="AL7" s="24">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="AM7" s="25">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="AN7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="AO7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="AP7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="AQ7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="AR7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="AS7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="AT7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="AU7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="AV7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="AW7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="AX7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="AY7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="AZ7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="BA7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="BB7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="BC7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="BD7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="BE7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="BF7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="BG7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="BH7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="BI7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="BJ7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="BK7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="BL7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="BM7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="BN7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="BO7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="BP7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="BQ7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="BR7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="BS7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
       <c r="BT7" s="20">
-        <v>1.1104183387076455E-4</v>
+        <v>4.2033914976138416E-4</v>
       </c>
     </row>
     <row r="8" spans="1:72">
@@ -3322,208 +3322,208 @@
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="F8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="G8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="H8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="I8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="J8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="K8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="L8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="M8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="N8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="O8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="P8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="Q8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="R8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="S8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="T8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="U8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="V8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="W8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="X8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="Y8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="Z8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="AA8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="AB8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="AC8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="AD8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="AE8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="AF8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="AG8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="AH8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="AI8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="AJ8" s="16">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="AK8" s="24">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="AL8" s="24">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="AM8" s="25">
-        <v>3.2805729240880477E-3</v>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="AN8" s="20">
-        <v>3.5430187580150919E-3</v>
+        <v>2.8171258986494216E-3</v>
       </c>
       <c r="AO8" s="20">
-        <v>3.8264602586562993E-3</v>
+        <v>2.8186486694054482E-3</v>
       </c>
       <c r="AP8" s="20">
-        <v>4.1325770793488037E-3</v>
+        <v>2.8201722632808022E-3</v>
       </c>
       <c r="AQ8" s="20">
-        <v>4.4631832456967085E-3</v>
+        <v>2.8216966807204135E-3</v>
       </c>
       <c r="AR8" s="20">
-        <v>4.8202379053524456E-3</v>
+        <v>2.8232219221694514E-3</v>
       </c>
       <c r="AS8" s="20">
-        <v>5.2058569377806414E-3</v>
+        <v>2.8247479880733266E-3</v>
       </c>
       <c r="AT8" s="20">
-        <v>5.6223254928030927E-3</v>
+        <v>2.8262748788776904E-3</v>
       </c>
       <c r="AU8" s="20">
-        <v>6.0721115322273402E-3</v>
+        <v>2.8278025950284349E-3</v>
       </c>
       <c r="AV8" s="20">
-        <v>6.5578804548055277E-3</v>
+        <v>2.8293311369716936E-3</v>
       </c>
       <c r="AW8" s="20">
-        <v>7.0825108911899701E-3</v>
+        <v>2.8308605051538403E-3</v>
       </c>
       <c r="AX8" s="20">
-        <v>7.649111762485168E-3</v>
+        <v>2.832390700021491E-3</v>
       </c>
       <c r="AY8" s="20">
-        <v>8.2610407034839819E-3</v>
+        <v>2.8339217220215026E-3</v>
       </c>
       <c r="AZ8" s="20">
-        <v>8.9219239597627016E-3</v>
+        <v>2.8354535716009735E-3</v>
       </c>
       <c r="BA8" s="20">
-        <v>9.6356778765437183E-3</v>
+        <v>2.8369862492072444E-3</v>
       </c>
       <c r="BB8" s="20">
-        <v>1.0406532106667216E-2</v>
+        <v>2.8385197552878967E-3</v>
       </c>
       <c r="BC8" s="20">
-        <v>1.1239054675200595E-2</v>
+        <v>2.8400540902907552E-3</v>
       </c>
       <c r="BD8" s="20">
-        <v>1.2138179049216644E-2</v>
+        <v>2.8415892546638853E-3</v>
       </c>
       <c r="BE8" s="20">
-        <v>1.3109233373153976E-2</v>
+        <v>2.8431252488555956E-3</v>
       </c>
       <c r="BF8" s="20">
-        <v>1.4157972043006294E-2</v>
+        <v>2.8446620733144365E-3</v>
       </c>
       <c r="BG8" s="20">
-        <v>1.5290609806446798E-2</v>
+        <v>2.846199728489201E-3</v>
       </c>
       <c r="BH8" s="20">
-        <v>1.6513858590962542E-2</v>
+        <v>2.8477382148289249E-3</v>
       </c>
       <c r="BI8" s="20">
-        <v>1.7834967278239546E-2</v>
+        <v>2.8492775327828863E-3</v>
       </c>
       <c r="BJ8" s="20">
-        <v>1.9261764660498712E-2</v>
+        <v>2.8508176828006067E-3</v>
       </c>
       <c r="BK8" s="20">
-        <v>2.0802705833338611E-2</v>
+        <v>2.8523586653318501E-3</v>
       </c>
       <c r="BL8" s="20">
-        <v>2.2466922300005701E-2</v>
+        <v>2.8539004808266241E-3</v>
       </c>
       <c r="BM8" s="20">
-        <v>2.4264276084006157E-2</v>
+        <v>2.8554431297351788E-3</v>
       </c>
       <c r="BN8" s="20">
-        <v>2.6205418170726653E-2</v>
+        <v>2.8569866125080084E-3</v>
       </c>
       <c r="BO8" s="20">
-        <v>2.8301851624384786E-2</v>
+        <v>2.8585309295958506E-3</v>
       </c>
       <c r="BP8" s="20">
-        <v>3.056599975433557E-2</v>
+        <v>2.860076081449686E-3</v>
       </c>
       <c r="BQ8" s="20">
-        <v>3.3011279734682417E-2</v>
+        <v>2.8616220685207397E-3</v>
       </c>
       <c r="BR8" s="20">
-        <v>3.5652182113457012E-2</v>
+        <v>2.8631688912604805E-3</v>
       </c>
       <c r="BS8" s="20">
-        <v>3.8504356682533575E-2</v>
+        <v>2.8647165501206212E-3</v>
       </c>
       <c r="BT8" s="20">
-        <v>4.1584705217136267E-2</v>
+        <v>2.8662650455531188E-3</v>
       </c>
     </row>
     <row r="9" spans="1:72">
@@ -3536,208 +3536,208 @@
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="F9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="G9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="H9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="I9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="J9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="K9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="L9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="M9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="N9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="O9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="P9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="Q9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="R9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="S9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="T9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="U9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="V9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="W9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="X9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="Y9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="Z9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="AA9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="AB9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="AC9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="AD9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="AE9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="AF9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="AG9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="AH9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="AI9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="AJ9" s="16">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="AK9" s="24">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="AL9" s="24">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="AM9" s="25">
-        <v>1.1378387815707165E-3</v>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="AN9" s="20">
-        <v>1.1264603937550094E-3</v>
+        <v>4.264117293865396E-3</v>
       </c>
       <c r="AO9" s="20">
-        <v>1.1151957898174593E-3</v>
+        <v>4.2214761209267418E-3</v>
       </c>
       <c r="AP9" s="20">
-        <v>1.1040438319192846E-3</v>
+        <v>4.1792613597174746E-3</v>
       </c>
       <c r="AQ9" s="20">
-        <v>1.0930033936000917E-3</v>
+        <v>4.1374687461203001E-3</v>
       </c>
       <c r="AR9" s="20">
-        <v>1.0820733596640908E-3</v>
+        <v>4.0960940586590973E-3</v>
       </c>
       <c r="AS9" s="20">
-        <v>1.07125262606745E-3</v>
+        <v>4.0551331180725065E-3</v>
       </c>
       <c r="AT9" s="20">
-        <v>1.0605400998067755E-3</v>
+        <v>4.0145817868917815E-3</v>
       </c>
       <c r="AU9" s="20">
-        <v>1.0499346988087077E-3</v>
+        <v>3.9744359690228638E-3</v>
       </c>
       <c r="AV9" s="20">
-        <v>1.0394353518206206E-3</v>
+        <v>3.9346916093326353E-3</v>
       </c>
       <c r="AW9" s="20">
-        <v>1.0290409983024144E-3</v>
+        <v>3.8953446932393091E-3</v>
       </c>
       <c r="AX9" s="20">
-        <v>1.0187505883193903E-3</v>
+        <v>3.8563912463069161E-3</v>
       </c>
       <c r="AY9" s="20">
-        <v>1.0085630824361964E-3</v>
+        <v>3.8178273338438469E-3</v>
       </c>
       <c r="AZ9" s="20">
-        <v>9.9847745161183452E-4</v>
+        <v>3.7796490605054084E-3</v>
       </c>
       <c r="BA9" s="20">
-        <v>9.8849267709571619E-4</v>
+        <v>3.7418525699003543E-3</v>
       </c>
       <c r="BB9" s="20">
-        <v>9.7860775032475897E-4</v>
+        <v>3.7044340442013509E-3</v>
       </c>
       <c r="BC9" s="20">
-        <v>9.6882167282151131E-4</v>
+        <v>3.6673897037593373E-3</v>
       </c>
       <c r="BD9" s="20">
-        <v>9.5913345609329619E-4</v>
+        <v>3.6307158067217437E-3</v>
       </c>
       <c r="BE9" s="20">
-        <v>9.4954212153236322E-4</v>
+        <v>3.5944086486545263E-3</v>
       </c>
       <c r="BF9" s="20">
-        <v>9.4004670031703954E-4</v>
+        <v>3.5584645621679809E-3</v>
       </c>
       <c r="BG9" s="20">
-        <v>9.3064623331386913E-4</v>
+        <v>3.5228799165463011E-3</v>
       </c>
       <c r="BH9" s="20">
-        <v>9.213397709807304E-4</v>
+        <v>3.4876511173808382E-3</v>
       </c>
       <c r="BI9" s="20">
-        <v>9.1212637327092304E-4</v>
+        <v>3.4527746062070299E-3</v>
       </c>
       <c r="BJ9" s="20">
-        <v>9.030051095382138E-4</v>
+        <v>3.4182468601449594E-3</v>
       </c>
       <c r="BK9" s="20">
-        <v>8.9397505844283161E-4</v>
+        <v>3.3840643915435098E-3</v>
       </c>
       <c r="BL9" s="20">
-        <v>8.8503530785840332E-4</v>
+        <v>3.3502237476280747E-3</v>
       </c>
       <c r="BM9" s="20">
-        <v>8.7618495477981924E-4</v>
+        <v>3.316721510151794E-3</v>
       </c>
       <c r="BN9" s="20">
-        <v>8.6742310523202099E-4</v>
+        <v>3.283554295050276E-3</v>
       </c>
       <c r="BO9" s="20">
-        <v>8.5874887417970074E-4</v>
+        <v>3.2507187520997732E-3</v>
       </c>
       <c r="BP9" s="20">
-        <v>8.501613854379037E-4</v>
+        <v>3.2182115645787756E-3</v>
       </c>
       <c r="BQ9" s="20">
-        <v>8.4165977158352464E-4</v>
+        <v>3.186029448932988E-3</v>
       </c>
       <c r="BR9" s="20">
-        <v>8.3324317386768935E-4</v>
+        <v>3.154169154443658E-3</v>
       </c>
       <c r="BS9" s="20">
-        <v>8.2491074212901242E-4</v>
+        <v>3.1226274628992213E-3</v>
       </c>
       <c r="BT9" s="20">
-        <v>8.1666163470772225E-4</v>
+        <v>3.091401188270229E-3</v>
       </c>
     </row>
     <row r="10" spans="1:72">
@@ -3751,205 +3751,205 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="16">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="G10" s="16">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="H10" s="16">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="I10" s="16">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="J10" s="16">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="K10" s="16">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="L10" s="16">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="M10" s="16">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="N10" s="16">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="O10" s="16">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="P10" s="16">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="Q10" s="16">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="R10" s="16">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="S10" s="16">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="T10" s="16">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="U10" s="16">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="V10" s="16">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="W10" s="16">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="X10" s="16">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="Y10" s="16">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="Z10" s="16">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="AA10" s="16">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="AB10" s="16">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="AC10" s="16">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="AD10" s="16">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="AE10" s="16">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="AF10" s="16">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="AG10" s="16">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="AH10" s="16">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="AI10" s="16">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="AJ10" s="16">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="AK10" s="24">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="AL10" s="24">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="AM10" s="25">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="AN10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="AO10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="AP10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="AQ10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="AR10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="AS10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="AT10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="AU10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="AV10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="AW10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="AX10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="AY10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="AZ10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="BA10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="BB10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="BC10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="BD10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="BE10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="BF10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="BG10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="BH10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="BI10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="BJ10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="BK10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="BL10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="BM10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="BN10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="BO10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="BP10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="BQ10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="BR10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="BS10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
       <c r="BT10" s="20">
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516356E-4</v>
       </c>
     </row>
     <row r="11" spans="1:72">
@@ -3963,205 +3963,205 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="16">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="G11" s="16">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="H11" s="16">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="I11" s="16">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="J11" s="16">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="K11" s="16">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="L11" s="16">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="M11" s="16">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="N11" s="16">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="O11" s="16">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="P11" s="16">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="Q11" s="16">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="R11" s="16">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="S11" s="16">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="T11" s="16">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="U11" s="16">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="V11" s="16">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="W11" s="16">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="X11" s="16">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="Y11" s="16">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="Z11" s="16">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="AA11" s="16">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="AB11" s="16">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="AC11" s="16">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="AD11" s="16">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="AE11" s="16">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="AF11" s="16">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="AG11" s="16">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="AH11" s="16">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="AI11" s="16">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="AJ11" s="16">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="AK11" s="24">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="AL11" s="24">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="AM11" s="25">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="AN11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="AO11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="AP11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="AQ11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="AR11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="AS11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="AT11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="AU11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="AV11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="AW11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="AX11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="AY11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="AZ11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="BA11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="BB11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="BC11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="BD11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="BE11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="BF11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="BG11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="BH11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="BI11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="BJ11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="BK11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="BL11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="BM11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="BN11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="BO11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="BP11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="BQ11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="BR11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="BS11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="BT11" s="20">
-        <v>5.3485038907266408E-4</v>
+        <v>2.0246293667484216E-3</v>
       </c>
     </row>
     <row r="12" spans="1:72">
@@ -4552,19 +4552,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.265625" customWidth="1"/>
+    <col min="2" max="2" width="21.73046875" customWidth="1"/>
+    <col min="3" max="3" width="18.265625" customWidth="1"/>
+    <col min="4" max="5" width="16.73046875" customWidth="1"/>
+    <col min="6" max="6" width="20.59765625" customWidth="1"/>
+    <col min="7" max="7" width="16.73046875" customWidth="1"/>
+    <col min="8" max="8" width="16.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -4683,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E19" s="8">
         <v>1</v>
@@ -5036,18 +5036,18 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.86328125" customWidth="1"/>
+    <col min="2" max="2" width="21.73046875" customWidth="1"/>
+    <col min="3" max="3" width="18.265625" customWidth="1"/>
+    <col min="4" max="5" width="16.73046875" customWidth="1"/>
+    <col min="6" max="6" width="20.59765625" customWidth="1"/>
+    <col min="7" max="7" width="16.73046875" customWidth="1"/>
+    <col min="8" max="8" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45">
+    <row r="1" spans="1:8" ht="42.75">
       <c r="A1" s="18" t="s">
         <v>57</v>
       </c>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="E4" s="16">
         <f>AVERAGE('BHNVFEAL data'!O6:AL6)*'Calibration Adjustments'!E21</f>
-        <v>1.4522713561127213E-4</v>
+        <v>5.3600722376299567E-4</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="B5" s="16">
         <f>AVERAGE('BHNVFEAL data'!E8:AL8)*'Calibration Adjustments'!E22</f>
-        <v>3.2805729240880481E-3</v>
+        <v>2.8156039505680313E-3</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5207,7 +5207,7 @@
       </c>
       <c r="E6" s="16">
         <f>AVERAGE('BHNVFEAL data'!F10:AL10)*'Calibration Adjustments'!E23</f>
-        <v>1.4401514248185007E-4</v>
+        <v>2.3178432205516348E-4</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5264,21 +5264,21 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="8" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.3984375" customWidth="1"/>
+    <col min="2" max="2" width="21.73046875" customWidth="1"/>
+    <col min="3" max="3" width="18.265625" customWidth="1"/>
+    <col min="4" max="5" width="16.73046875" customWidth="1"/>
+    <col min="6" max="6" width="20.59765625" customWidth="1"/>
+    <col min="7" max="8" width="16.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45">
+    <row r="1" spans="1:8" ht="42.75">
       <c r="A1" s="18" t="s">
         <v>60</v>
       </c>
@@ -5310,31 +5310,31 @@
       </c>
       <c r="B2" s="11">
         <f>$D2/(1-'Calculations Etc'!$B$2)*'Calibration Adjustments'!B28</f>
-        <v>1.29405174169892E-3</v>
+        <v>5.1762069667956798E-4</v>
       </c>
       <c r="C2" s="11">
         <f>$D2*'Calibration Adjustments'!C28</f>
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="D2" s="11">
         <f>AVERAGE('BHNVFEAL data'!Y3:AL3)*'Calibration Adjustments'!D28</f>
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="E2" s="11">
         <f>$D2*'Calibration Adjustments'!E28</f>
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="F2" s="11">
         <f>$D2/(1-'Calculations Etc'!$B$2)*'Calculations Etc'!$B$6+$D2*(1-'Calculations Etc'!$B$6)*'Calibration Adjustments'!F28</f>
-        <v>8.9460684457119558E-4</v>
+        <v>3.5784273782847825E-4</v>
       </c>
       <c r="G2" s="11">
         <f>$D2*'Calibration Adjustments'!G28</f>
-        <v>4.0639641474842121E-4</v>
+        <v>1.625585658993685E-4</v>
       </c>
       <c r="H2" s="11">
         <f>D2*'Calculations Etc'!$B$11</f>
-        <v>1.015991036871053E-3</v>
+        <v>4.0639641474842127E-4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5343,31 +5343,31 @@
       </c>
       <c r="B3" s="11">
         <f>$E3/(1-'Calculations Etc'!$B$3)*'Calibration Adjustments'!B29</f>
-        <v>4.7902893730543891E-3</v>
+        <v>1.5166722171907963E-3</v>
       </c>
       <c r="C3" s="11">
         <f>$E3*'Calibration Adjustments'!C29</f>
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680614E-4</v>
       </c>
       <c r="D3" s="11">
         <f>$E3*'Calibration Adjustments'!D29</f>
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680614E-4</v>
       </c>
       <c r="E3" s="11">
         <f>AVERAGE('BHNVFEAL data'!K5:AL5)*'Calibration Adjustments'!E29</f>
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680614E-4</v>
       </c>
       <c r="F3" s="11">
         <f>$E3/(1-'Calculations Etc'!$B$3)*'Calculations Etc'!$B$6+$E3*(1-'Calculations Etc'!$B$6)*'Calibration Adjustments'!F29</f>
-        <v>3.3054689355832547E-3</v>
+        <v>1.0465574225195008E-3</v>
       </c>
       <c r="G3" s="11">
         <f>$E3*'Calibration Adjustments'!G29</f>
-        <v>1.4906884008963129E-3</v>
+        <v>4.7197267347680614E-4</v>
       </c>
       <c r="H3" s="11">
         <f>D3*'Calculations Etc'!$B$11</f>
-        <v>3.7267210022407823E-3</v>
+        <v>1.1799316836920153E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="E4" s="16">
         <f>AVERAGE('BHNVFEAL data'!O6:AL6)*'Calibration Adjustments'!E30</f>
-        <v>1.4522713561127213E-4</v>
+        <v>5.3600722376299567E-4</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5396,7 +5396,7 @@
       </c>
       <c r="H4">
         <f>AVERAGE('BHNVFEAL data'!R7:AK7)*'Calibration Adjustments'!H30</f>
-        <v>1.1104183387076459E-4</v>
+        <v>4.2033914976138422E-4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="B5" s="16">
         <f>E5*'Calculations Etc'!B3</f>
-        <v>7.8375514659900422E-4</v>
+        <v>2.9668365557250754E-3</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="E5" s="16">
         <f>AVERAGE('BHNVFEAL data'!E9:AL9)*'Calibration Adjustments'!E31</f>
-        <v>1.1378387815707159E-3</v>
+        <v>4.3071891857226216E-3</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5426,7 +5426,7 @@
       </c>
       <c r="H5">
         <f>AVERAGE('BHNVFEAL data'!D9:AK9)*'Calibration Adjustments'!H31</f>
-        <v>1.1378387815707161E-3</v>
+        <v>4.3071891857226216E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5444,7 +5444,7 @@
       </c>
       <c r="E6" s="16">
         <f>AVERAGE('BHNVFEAL data'!F11:AL11)*'Calibration Adjustments'!E32</f>
-        <v>5.3485038907266419E-4</v>
+        <v>2.0246293667484229E-3</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="H6">
         <f>AVERAGE('BHNVFEAL data'!E11:AK11)*'Calibration Adjustments'!H32</f>
-        <v>5.3485038907266419E-4</v>
+        <v>2.0246293667484229E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8">

--- a/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
+++ b/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Brazil\Model\InputData\trans\SYFAFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4D52E2-6B8E-48CE-98ED-26883ABC1BC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3BB4D7-7965-4C89-B351-1C12B753439F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41055" yWindow="1005" windowWidth="25725" windowHeight="9030" tabRatio="742" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40305" yWindow="1740" windowWidth="25200" windowHeight="11640" tabRatio="742" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="ti_tbl_69" localSheetId="5">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -527,7 +527,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -676,6 +676,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,7 +1160,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1177,10 +1189,14 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="42" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="41" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="42" fillId="28" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="41" fillId="28" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="153">
     <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1754,7 +1770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -1864,10 +1880,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="A8:B8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1954,6 +1970,9 @@
         <v>2.5</v>
       </c>
     </row>
+    <row r="14" spans="1:4">
+      <c r="C14" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1963,8 +1982,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BT18"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2185,10 +2205,10 @@
       </c>
     </row>
     <row r="2" spans="1:72">
-      <c r="A2" t="s">
+      <c r="A2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="28" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="12"/>
@@ -2215,145 +2235,145 @@
       <c r="X2" s="12"/>
       <c r="Y2" s="15"/>
       <c r="Z2" s="14">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AA2" s="14">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AB2" s="14">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AC2" s="14">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AD2" s="14">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AE2" s="14">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AF2" s="14">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AG2" s="14">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AH2" s="14">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AI2" s="14">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AJ2" s="14">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AK2" s="14">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="AL2" s="14">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="AM2" s="22">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="AN2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="AO2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="AP2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="AQ2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="AR2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="AS2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="AT2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="AU2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="AV2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="AW2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="AX2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="AY2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="AZ2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BA2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BB2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BC2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BD2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BE2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BF2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BG2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BH2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BI2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BJ2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BK2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BL2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BM2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BN2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BO2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BP2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BQ2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BR2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BS2" s="23">
-        <v>3.8531369427586355E-4</v>
-      </c>
-      <c r="BT2" s="23">
-        <v>3.8531369427586355E-4</v>
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="AM2" s="24">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="AN2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="AO2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="AP2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="AQ2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="AR2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="AS2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="AT2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="AU2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="AV2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="AW2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="AX2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="AY2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="AZ2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BA2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BB2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BC2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BD2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BE2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BF2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BG2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BH2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BI2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BJ2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BK2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BL2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BM2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BN2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BO2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BP2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BQ2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BR2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BS2" s="22">
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="BT2" s="22">
+        <v>3.8531369427586366E-4</v>
       </c>
     </row>
     <row r="3" spans="1:72">
@@ -2427,114 +2447,114 @@
       <c r="AL3" s="14">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AM3" s="22">
+      <c r="AM3" s="24">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AN3" s="23">
+      <c r="AN3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AO3" s="23">
+      <c r="AO3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AP3" s="23">
+      <c r="AP3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AQ3" s="23">
+      <c r="AQ3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AR3" s="23">
+      <c r="AR3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AS3" s="23">
+      <c r="AS3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AT3" s="23">
+      <c r="AT3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AU3" s="23">
+      <c r="AU3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AV3" s="23">
+      <c r="AV3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AW3" s="23">
+      <c r="AW3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AX3" s="23">
+      <c r="AX3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AY3" s="23">
+      <c r="AY3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="AZ3" s="23">
+      <c r="AZ3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BA3" s="23">
+      <c r="BA3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BB3" s="23">
+      <c r="BB3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BC3" s="23">
+      <c r="BC3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BD3" s="23">
+      <c r="BD3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BE3" s="23">
+      <c r="BE3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BF3" s="23">
+      <c r="BF3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BG3" s="23">
+      <c r="BG3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BH3" s="23">
+      <c r="BH3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BI3" s="23">
+      <c r="BI3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BJ3" s="23">
+      <c r="BJ3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BK3" s="23">
+      <c r="BK3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BL3" s="23">
+      <c r="BL3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BM3" s="23">
+      <c r="BM3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BN3" s="23">
+      <c r="BN3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BO3" s="23">
+      <c r="BO3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BP3" s="23">
+      <c r="BP3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BQ3" s="23">
+      <c r="BQ3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BR3" s="23">
+      <c r="BR3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BS3" s="23">
+      <c r="BS3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="BT3" s="23">
+      <c r="BT3" s="22">
         <v>1.625585658993685E-4</v>
       </c>
     </row>
     <row r="4" spans="1:72">
-      <c r="A4" t="s">
+      <c r="A4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="28" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="12"/>
@@ -2619,106 +2639,106 @@
       <c r="AL4" s="14">
         <v>1.7655503230029938E-3</v>
       </c>
-      <c r="AM4" s="22">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="AN4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="AO4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="AP4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="AQ4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="AR4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="AS4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="AT4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="AU4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="AV4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="AW4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="AX4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="AY4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="AZ4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="BA4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="BB4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="BC4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="BD4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="BE4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="BF4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="BG4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="BH4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="BI4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="BJ4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="BK4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="BL4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="BM4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="BN4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="BO4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="BP4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="BQ4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="BR4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="BS4" s="23">
-        <v>1.7655503230029938E-3</v>
-      </c>
-      <c r="BT4" s="23">
+      <c r="AM4" s="24">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="AN4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="AO4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="AP4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="AQ4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="AR4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="AS4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="AT4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="AU4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="AV4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="AW4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="AX4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="AY4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="AZ4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="BA4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="BB4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="BC4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="BD4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="BE4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="BF4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="BG4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="BH4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="BI4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="BJ4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="BK4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="BL4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="BM4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="BN4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="BO4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="BP4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="BQ4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="BR4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="BS4" s="22">
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="BT4" s="22">
         <v>1.7655503230029938E-3</v>
       </c>
     </row>
@@ -2815,10 +2835,10 @@
       <c r="AJ5" s="14">
         <v>4.7197267347680587E-4</v>
       </c>
-      <c r="AK5" s="24">
+      <c r="AK5" s="23">
         <v>4.7197267347680587E-4</v>
       </c>
-      <c r="AL5" s="24">
+      <c r="AL5" s="23">
         <v>4.7197267347680587E-4</v>
       </c>
       <c r="AM5" s="25">
@@ -2925,10 +2945,10 @@
       </c>
     </row>
     <row r="6" spans="1:72">
-      <c r="A6" t="s">
+      <c r="A6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="28" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="12"/>
@@ -2944,178 +2964,178 @@
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="16">
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="P6" s="16">
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="Q6" s="16">
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="R6" s="16">
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="S6" s="16">
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="T6" s="16">
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="U6" s="16">
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="V6" s="16">
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="W6" s="16">
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="X6" s="16">
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="Y6" s="16">
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="Z6" s="16">
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="AA6" s="16">
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="AB6" s="16">
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="AC6" s="16">
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="AD6" s="16">
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="AE6" s="16">
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="AF6" s="16">
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="AG6" s="16">
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="AH6" s="16">
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="AI6" s="16">
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="AJ6" s="16">
-        <v>5.3600722376299557E-4</v>
-      </c>
-      <c r="AK6" s="24">
-        <v>5.3600722376299557E-4</v>
-      </c>
-      <c r="AL6" s="24">
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
+      </c>
+      <c r="AK6" s="23">
+        <v>6.0343668020558983E-4</v>
+      </c>
+      <c r="AL6" s="23">
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="AM6" s="25">
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="AN6" s="20">
-        <v>5.3614827829556472E-4</v>
+        <v>6.0359547933195961E-4</v>
       </c>
       <c r="AO6" s="20">
-        <v>5.3628936994774769E-4</v>
+        <v>6.0375432024757322E-4</v>
       </c>
       <c r="AP6" s="20">
-        <v>5.364304987293128E-4</v>
+        <v>6.0391320296342783E-4</v>
       </c>
       <c r="AQ6" s="20">
-        <v>5.3657166465003099E-4</v>
+        <v>6.0407212749052344E-4</v>
       </c>
       <c r="AR6" s="20">
-        <v>5.3671286771967569E-4</v>
+        <v>6.0423109383986296E-4</v>
       </c>
       <c r="AS6" s="20">
-        <v>5.3685410794802294E-4</v>
+        <v>6.0439010202245234E-4</v>
       </c>
       <c r="AT6" s="20">
-        <v>5.3699538534485126E-4</v>
+        <v>6.0454915204930025E-4</v>
       </c>
       <c r="AU6" s="20">
-        <v>5.3713669991994201E-4</v>
+        <v>6.0470824393141838E-4</v>
       </c>
       <c r="AV6" s="20">
-        <v>5.372780516830788E-4</v>
+        <v>6.0486737767982137E-4</v>
       </c>
       <c r="AW6" s="20">
-        <v>5.3741944064404797E-4</v>
+        <v>6.0502655330552655E-4</v>
       </c>
       <c r="AX6" s="20">
-        <v>5.3756086681263845E-4</v>
+        <v>6.0518577081955429E-4</v>
       </c>
       <c r="AY6" s="20">
-        <v>5.3770233019864169E-4</v>
+        <v>6.0534503023292779E-4</v>
       </c>
       <c r="AZ6" s="20">
-        <v>5.378438308118518E-4</v>
+        <v>6.0550433155667327E-4</v>
       </c>
       <c r="BA6" s="20">
-        <v>5.3798536866206544E-4</v>
+        <v>6.0566367480181967E-4</v>
       </c>
       <c r="BB6" s="20">
-        <v>5.3812694375908173E-4</v>
+        <v>6.0582305997939907E-4</v>
       </c>
       <c r="BC6" s="20">
-        <v>5.382685561127025E-4</v>
+        <v>6.0598248710044627E-4</v>
       </c>
       <c r="BD6" s="20">
-        <v>5.3841020573273208E-4</v>
+        <v>6.0614195617599898E-4</v>
       </c>
       <c r="BE6" s="20">
-        <v>5.3855189262897753E-4</v>
+        <v>6.0630146721709786E-4</v>
       </c>
       <c r="BF6" s="20">
-        <v>5.3869361681124826E-4</v>
+        <v>6.0646102023478648E-4</v>
       </c>
       <c r="BG6" s="20">
-        <v>5.3883537828935642E-4</v>
+        <v>6.0662061524011134E-4</v>
       </c>
       <c r="BH6" s="20">
-        <v>5.3897717707311675E-4</v>
+        <v>6.0678025224412187E-4</v>
       </c>
       <c r="BI6" s="20">
-        <v>5.3911901317234647E-4</v>
+        <v>6.0693993125787021E-4</v>
       </c>
       <c r="BJ6" s="20">
-        <v>5.3926088659686543E-4</v>
+        <v>6.0709965229241165E-4</v>
       </c>
       <c r="BK6" s="20">
-        <v>5.3940279735649617E-4</v>
+        <v>6.0725941535880428E-4</v>
       </c>
       <c r="BL6" s="20">
-        <v>5.3954474546106363E-4</v>
+        <v>6.0741922046810915E-4</v>
       </c>
       <c r="BM6" s="20">
-        <v>5.3968673092039544E-4</v>
+        <v>6.075790676313902E-4</v>
       </c>
       <c r="BN6" s="20">
-        <v>5.3982875374432185E-4</v>
+        <v>6.0773895685971421E-4</v>
       </c>
       <c r="BO6" s="20">
-        <v>5.399708139426756E-4</v>
+        <v>6.0789888816415089E-4</v>
       </c>
       <c r="BP6" s="20">
-        <v>5.4011291152529202E-4</v>
+        <v>6.0805886155577298E-4</v>
       </c>
       <c r="BQ6" s="20">
-        <v>5.4025504650200918E-4</v>
+        <v>6.0821887704565604E-4</v>
       </c>
       <c r="BR6" s="20">
-        <v>5.4039721888266749E-4</v>
+        <v>6.0837893464487855E-4</v>
       </c>
       <c r="BS6" s="20">
-        <v>5.4053942867711023E-4</v>
+        <v>6.0853903436452193E-4</v>
       </c>
       <c r="BT6" s="20">
-        <v>5.4068167589518313E-4</v>
+        <v>6.086991762156704E-4</v>
       </c>
     </row>
     <row r="7" spans="1:72">
@@ -3138,185 +3158,185 @@
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
       <c r="O7" s="16">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="P7" s="16">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="Q7" s="16">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="R7" s="16">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="S7" s="16">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="T7" s="16">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="U7" s="16">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="V7" s="16">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="W7" s="16">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="X7" s="16">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="Y7" s="16">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="Z7" s="16">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AA7" s="16">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AB7" s="16">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AC7" s="16">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AD7" s="16">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AE7" s="16">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AF7" s="16">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AG7" s="16">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AH7" s="16">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AI7" s="16">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AJ7" s="16">
-        <v>4.2033914976138416E-4</v>
-      </c>
-      <c r="AK7" s="24">
-        <v>4.2033914976138416E-4</v>
-      </c>
-      <c r="AL7" s="24">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
+      </c>
+      <c r="AK7" s="23">
+        <v>3.7161983445238052E-7</v>
+      </c>
+      <c r="AL7" s="23">
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AM7" s="25">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AN7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AO7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AP7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AQ7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AR7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AS7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AT7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AU7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AV7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AW7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AX7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AY7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AZ7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BA7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BB7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BC7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BD7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BE7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BF7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BG7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BH7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BI7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BJ7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BK7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BL7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BM7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BN7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BO7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BP7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BQ7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BR7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BS7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="BT7" s="20">
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
     </row>
     <row r="8" spans="1:72">
-      <c r="A8" t="s">
+      <c r="A8" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="28" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="13"/>
@@ -3417,10 +3437,10 @@
       <c r="AJ8" s="16">
         <v>2.8156039505680334E-3</v>
       </c>
-      <c r="AK8" s="24">
+      <c r="AK8" s="23">
         <v>2.8156039505680334E-3</v>
       </c>
-      <c r="AL8" s="24">
+      <c r="AL8" s="23">
         <v>2.8156039505680334E-3</v>
       </c>
       <c r="AM8" s="25">
@@ -3631,10 +3651,10 @@
       <c r="AJ9" s="16">
         <v>4.3071891857226225E-3</v>
       </c>
-      <c r="AK9" s="24">
+      <c r="AK9" s="23">
         <v>4.3071891857226225E-3</v>
       </c>
-      <c r="AL9" s="24">
+      <c r="AL9" s="23">
         <v>4.3071891857226225E-3</v>
       </c>
       <c r="AM9" s="25">
@@ -3741,10 +3761,10 @@
       </c>
     </row>
     <row r="10" spans="1:72">
-      <c r="A10" t="s">
+      <c r="A10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="28" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="13"/>
@@ -3843,10 +3863,10 @@
       <c r="AJ10" s="16">
         <v>2.3178432205516356E-4</v>
       </c>
-      <c r="AK10" s="24">
-        <v>2.3178432205516356E-4</v>
-      </c>
-      <c r="AL10" s="24">
+      <c r="AK10" s="23">
+        <v>2.3178432205516356E-4</v>
+      </c>
+      <c r="AL10" s="23">
         <v>2.3178432205516356E-4</v>
       </c>
       <c r="AM10" s="25">
@@ -4055,10 +4075,10 @@
       <c r="AJ11" s="16">
         <v>2.0246293667484216E-3</v>
       </c>
-      <c r="AK11" s="24">
-        <v>2.0246293667484216E-3</v>
-      </c>
-      <c r="AL11" s="24">
+      <c r="AK11" s="23">
+        <v>2.0246293667484216E-3</v>
+      </c>
+      <c r="AL11" s="23">
         <v>2.0246293667484216E-3</v>
       </c>
       <c r="AM11" s="25">
@@ -4165,10 +4185,10 @@
       </c>
     </row>
     <row r="12" spans="1:72">
-      <c r="A12" t="s">
+      <c r="A12" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="28" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="13"/>
@@ -4235,10 +4255,10 @@
       <c r="AJ12" s="16">
         <v>5.9683256416215671E-4</v>
       </c>
-      <c r="AK12" s="24">
+      <c r="AK12" s="23">
         <v>5.9683256416215671E-4</v>
       </c>
-      <c r="AL12" s="24">
+      <c r="AL12" s="23">
         <v>5.9683256416215671E-4</v>
       </c>
       <c r="AM12" s="25">
@@ -4345,10 +4365,10 @@
       </c>
     </row>
     <row r="13" spans="1:72">
-      <c r="A13" s="8" t="s">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="17"/>
@@ -4419,10 +4439,10 @@
       <c r="AJ13" s="8">
         <v>0</v>
       </c>
-      <c r="AK13" s="24">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="24">
+      <c r="AK13" s="23">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="23">
         <v>0</v>
       </c>
       <c r="AM13" s="25">
@@ -4552,7 +4572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -5033,12 +5053,12 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.86328125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="21.73046875" customWidth="1"/>
     <col min="3" max="3" width="18.265625" customWidth="1"/>
     <col min="4" max="5" width="16.73046875" customWidth="1"/>
@@ -5047,7 +5067,7 @@
     <col min="8" max="8" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42.75">
+    <row r="1" spans="1:8" ht="28.5">
       <c r="A1" s="18" t="s">
         <v>57</v>
       </c>
@@ -5079,30 +5099,31 @@
       </c>
       <c r="B2" s="11">
         <f>$D2/(1-'Calculations Etc'!$B$2)*'Calibration Adjustments'!B19</f>
-        <v>8.3921322613283078E-4</v>
+        <v>1.2269199212468287E-3</v>
       </c>
       <c r="C2" s="11">
         <f>$D2*'Calibration Adjustments'!C19</f>
-        <v>2.6355456688469071E-4</v>
-      </c>
-      <c r="D2" s="11">
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586366E-4</v>
+      </c>
+      <c r="D2" s="26">
+        <f>'BHNVFEAL data'!AM2*'Calibration Adjustments'!D19</f>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="E2" s="11">
         <f>$D2*'Calibration Adjustments'!E19</f>
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="F2" s="11">
         <f>$D2/(1-'Calculations Etc'!$B$2)*'Calculations Etc'!$B$6+$D2*(1-'Calculations Etc'!$B$6)*'Calibration Adjustments'!F19</f>
-        <v>5.8016682947116776E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="G2" s="11">
         <f>$D2*'Calibration Adjustments'!G19</f>
-        <v>2.6355456688469071E-4</v>
+        <v>3.8531369427586366E-4</v>
       </c>
       <c r="H2" s="11">
         <f>D2*'Calculations Etc'!$B$11</f>
-        <v>6.5888641721172678E-4</v>
+        <v>9.6328423568965921E-4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5111,31 +5132,31 @@
       </c>
       <c r="B3" s="11">
         <f>$E3/(1-'Calculations Etc'!$B$3)*'Calibration Adjustments'!B20</f>
-        <v>5.6735511893623858E-3</v>
+        <v>5.6735511893623832E-3</v>
       </c>
       <c r="C3" s="11">
         <f>$E3*'Calibration Adjustments'!C20</f>
-        <v>1.7655503230029946E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="D3" s="11">
         <f>$E3*'Calibration Adjustments'!D20</f>
-        <v>1.7655503230029946E-3</v>
-      </c>
-      <c r="E3" s="11">
-        <f>AVERAGE('BHNVFEAL data'!P4:AL4)*'Calibration Adjustments'!E20</f>
-        <v>1.7655503230029946E-3</v>
+        <v>1.7655503230029938E-3</v>
+      </c>
+      <c r="E3" s="26">
+        <f>'BHNVFEAL data'!AM4*'Calibration Adjustments'!E20</f>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="F3" s="11">
         <f>$E3/(1-'Calculations Etc'!$B$3)*'Calculations Etc'!$B$6+$E3*(1-'Calculations Etc'!$B$6)*'Calibration Adjustments'!F20</f>
-        <v>3.9149507995006596E-3</v>
+        <v>3.9149507995006579E-3</v>
       </c>
       <c r="G3" s="11">
         <f>$E3*'Calibration Adjustments'!G20</f>
-        <v>1.7655503230029946E-3</v>
+        <v>1.7655503230029938E-3</v>
       </c>
       <c r="H3" s="11">
         <f>D3*'Calculations Etc'!$B$11</f>
-        <v>4.4138758075074865E-3</v>
+        <v>4.4138758075074848E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5151,9 +5172,9 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="16">
-        <f>AVERAGE('BHNVFEAL data'!O6:AL6)*'Calibration Adjustments'!E21</f>
-        <v>5.3600722376299567E-4</v>
+      <c r="E4" s="27">
+        <f>'BHNVFEAL data'!AM6*'Calibration Adjustments'!E21</f>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5169,9 +5190,9 @@
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="16">
-        <f>AVERAGE('BHNVFEAL data'!E8:AL8)*'Calibration Adjustments'!E22</f>
-        <v>2.8156039505680313E-3</v>
+      <c r="B5" s="27">
+        <f>'BHNVFEAL data'!AM8*'Calibration Adjustments'!E22</f>
+        <v>2.8156039505680334E-3</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5225,23 +5246,23 @@
       </c>
       <c r="B7" s="11">
         <f>$D7/(1-'Calculations Etc'!$B$2)*'Calibration Adjustments'!B24</f>
-        <v>1.9004405332531825E-3</v>
+        <v>1.9004405332531829E-3</v>
       </c>
       <c r="C7" s="11">
         <f>$D7*'Calibration Adjustments'!C24</f>
-        <v>5.968325641621566E-4</v>
-      </c>
-      <c r="D7" s="11">
-        <f>AVERAGE('BHNVFEAL data'!V12:AL12)*'Calibration Adjustments'!D24</f>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
+      </c>
+      <c r="D7" s="26">
+        <f>'BHNVFEAL data'!AM12*'Calibration Adjustments'!D24</f>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="E7" s="11">
         <f>$D7*'Calibration Adjustments'!E24</f>
-        <v>5.968325641621566E-4</v>
+        <v>5.9683256416215671E-4</v>
       </c>
       <c r="F7" s="11">
         <f>$D7/(1-'Calculations Etc'!$B$2)*'Calculations Etc'!$B$6+$D7*(1-'Calculations Etc'!$B$6)*'Calibration Adjustments'!F24</f>
-        <v>1.3138169471622208E-3</v>
+        <v>1.3138169471622213E-3</v>
       </c>
       <c r="G7" s="16">
         <f>AVERAGE('BHNVFEAL data'!AA12:AJ12)*'Calibration Adjustments'!G24</f>
@@ -5249,7 +5270,7 @@
       </c>
       <c r="H7" s="11">
         <f>D7*'Calculations Etc'!$B$11</f>
-        <v>1.4920814104053914E-3</v>
+        <v>1.4920814104053917E-3</v>
       </c>
     </row>
   </sheetData>
@@ -5264,8 +5285,8 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5316,8 +5337,8 @@
         <f>$D2*'Calibration Adjustments'!C28</f>
         <v>1.625585658993685E-4</v>
       </c>
-      <c r="D2" s="11">
-        <f>AVERAGE('BHNVFEAL data'!Y3:AL3)*'Calibration Adjustments'!D28</f>
+      <c r="D2" s="26">
+        <f>'BHNVFEAL data'!AM3*'Calibration Adjustments'!D28</f>
         <v>1.625585658993685E-4</v>
       </c>
       <c r="E2" s="11">
@@ -5343,31 +5364,31 @@
       </c>
       <c r="B3" s="11">
         <f>$E3/(1-'Calculations Etc'!$B$3)*'Calibration Adjustments'!B29</f>
-        <v>1.5166722171907963E-3</v>
+        <v>1.5166722171907955E-3</v>
       </c>
       <c r="C3" s="11">
         <f>$E3*'Calibration Adjustments'!C29</f>
-        <v>4.7197267347680614E-4</v>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="D3" s="11">
         <f>$E3*'Calibration Adjustments'!D29</f>
-        <v>4.7197267347680614E-4</v>
-      </c>
-      <c r="E3" s="11">
-        <f>AVERAGE('BHNVFEAL data'!K5:AL5)*'Calibration Adjustments'!E29</f>
-        <v>4.7197267347680614E-4</v>
+        <v>4.7197267347680587E-4</v>
+      </c>
+      <c r="E3" s="26">
+        <f>'BHNVFEAL data'!AM5*'Calibration Adjustments'!E29</f>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="F3" s="11">
         <f>$E3/(1-'Calculations Etc'!$B$3)*'Calculations Etc'!$B$6+$E3*(1-'Calculations Etc'!$B$6)*'Calibration Adjustments'!F29</f>
-        <v>1.0465574225195008E-3</v>
+        <v>1.0465574225195001E-3</v>
       </c>
       <c r="G3" s="11">
         <f>$E3*'Calibration Adjustments'!G29</f>
-        <v>4.7197267347680614E-4</v>
+        <v>4.7197267347680587E-4</v>
       </c>
       <c r="H3" s="11">
         <f>D3*'Calculations Etc'!$B$11</f>
-        <v>1.1799316836920153E-3</v>
+        <v>1.1799316836920146E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5383,9 +5404,9 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="16">
-        <f>AVERAGE('BHNVFEAL data'!O6:AL6)*'Calibration Adjustments'!E30</f>
-        <v>5.3600722376299567E-4</v>
+      <c r="E4" s="29">
+        <f>'BHNVFEAL data'!AM7*'Calibration Adjustments'!E30</f>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5396,7 +5417,7 @@
       </c>
       <c r="H4">
         <f>AVERAGE('BHNVFEAL data'!R7:AK7)*'Calibration Adjustments'!H30</f>
-        <v>4.2033914976138422E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5405,7 +5426,7 @@
       </c>
       <c r="B5" s="16">
         <f>E5*'Calculations Etc'!B3</f>
-        <v>2.9668365557250754E-3</v>
+        <v>2.9668365557250762E-3</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5414,8 +5435,8 @@
         <v>0</v>
       </c>
       <c r="E5" s="16">
-        <f>AVERAGE('BHNVFEAL data'!E9:AL9)*'Calibration Adjustments'!E31</f>
-        <v>4.3071891857226216E-3</v>
+        <f>'BHNVFEAL data'!AM9*'Calibration Adjustments'!E31</f>
+        <v>4.3071891857226225E-3</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5443,8 +5464,8 @@
         <v>0</v>
       </c>
       <c r="E6" s="16">
-        <f>AVERAGE('BHNVFEAL data'!F11:AL11)*'Calibration Adjustments'!E32</f>
-        <v>2.0246293667484229E-3</v>
+        <f>'BHNVFEAL data'!AM11*'Calibration Adjustments'!E32</f>
+        <v>2.0246293667484216E-3</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
+++ b/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Brazil\Model\InputData\trans\SYFAFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3BB4D7-7965-4C89-B351-1C12B753439F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92D77CA-C4C2-4D56-A370-614A1823CAFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40305" yWindow="1740" windowWidth="25200" windowHeight="11640" tabRatio="742" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="705" yWindow="705" windowWidth="16733" windowHeight="9173" tabRatio="742" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1984,7 +1984,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U27" sqref="U27"/>
+      <selection pane="topRight" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2964,178 +2964,178 @@
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="16">
-        <v>6.0343668020558983E-4</v>
+        <v>6.2106499150318462E-4</v>
       </c>
       <c r="P6" s="16">
-        <v>6.0343668020558983E-4</v>
+        <v>6.2106499150318462E-4</v>
       </c>
       <c r="Q6" s="16">
-        <v>6.0343668020558983E-4</v>
+        <v>6.2106499150318462E-4</v>
       </c>
       <c r="R6" s="16">
-        <v>6.0343668020558983E-4</v>
+        <v>6.2106499150318462E-4</v>
       </c>
       <c r="S6" s="16">
-        <v>6.0343668020558983E-4</v>
+        <v>6.2106499150318462E-4</v>
       </c>
       <c r="T6" s="16">
-        <v>6.0343668020558983E-4</v>
+        <v>6.2106499150318462E-4</v>
       </c>
       <c r="U6" s="16">
-        <v>6.0343668020558983E-4</v>
+        <v>6.2106499150318462E-4</v>
       </c>
       <c r="V6" s="16">
-        <v>6.0343668020558983E-4</v>
+        <v>6.2106499150318462E-4</v>
       </c>
       <c r="W6" s="16">
-        <v>6.0343668020558983E-4</v>
+        <v>6.2106499150318462E-4</v>
       </c>
       <c r="X6" s="16">
-        <v>6.0343668020558983E-4</v>
+        <v>6.2106499150318462E-4</v>
       </c>
       <c r="Y6" s="16">
-        <v>6.0343668020558983E-4</v>
+        <v>6.2106499150318462E-4</v>
       </c>
       <c r="Z6" s="16">
-        <v>6.0343668020558983E-4</v>
+        <v>6.2106499150318462E-4</v>
       </c>
       <c r="AA6" s="16">
-        <v>6.0343668020558983E-4</v>
+        <v>6.2106499150318462E-4</v>
       </c>
       <c r="AB6" s="16">
-        <v>6.0343668020558983E-4</v>
+        <v>6.2106499150318462E-4</v>
       </c>
       <c r="AC6" s="16">
-        <v>6.0343668020558983E-4</v>
+        <v>6.2106499150318462E-4</v>
       </c>
       <c r="AD6" s="16">
-        <v>6.0343668020558983E-4</v>
+        <v>6.2106499150318462E-4</v>
       </c>
       <c r="AE6" s="16">
-        <v>6.0343668020558983E-4</v>
+        <v>6.2106499150318462E-4</v>
       </c>
       <c r="AF6" s="16">
-        <v>6.0343668020558983E-4</v>
+        <v>6.2106499150318462E-4</v>
       </c>
       <c r="AG6" s="16">
-        <v>6.0343668020558983E-4</v>
+        <v>6.2106499150318462E-4</v>
       </c>
       <c r="AH6" s="16">
-        <v>6.0343668020558983E-4</v>
+        <v>6.2106499150318462E-4</v>
       </c>
       <c r="AI6" s="16">
-        <v>6.0343668020558983E-4</v>
+        <v>6.2106499150318462E-4</v>
       </c>
       <c r="AJ6" s="16">
-        <v>6.0343668020558983E-4</v>
+        <v>6.2106499150318462E-4</v>
       </c>
       <c r="AK6" s="23">
-        <v>6.0343668020558983E-4</v>
+        <v>6.2106499150318462E-4</v>
       </c>
       <c r="AL6" s="23">
-        <v>6.0343668020558983E-4</v>
+        <v>6.2106499150318462E-4</v>
       </c>
       <c r="AM6" s="25">
-        <v>6.0343668020558983E-4</v>
+        <v>6.2106499150318462E-4</v>
       </c>
       <c r="AN6" s="20">
-        <v>6.0359547933195961E-4</v>
+        <v>6.3023714250139693E-4</v>
       </c>
       <c r="AO6" s="20">
-        <v>6.0375432024757322E-4</v>
+        <v>6.395447517126545E-4</v>
       </c>
       <c r="AP6" s="20">
-        <v>6.0391320296342783E-4</v>
+        <v>6.4898981964125405E-4</v>
       </c>
       <c r="AQ6" s="20">
-        <v>6.0407212749052344E-4</v>
+        <v>6.5857437633578739E-4</v>
       </c>
       <c r="AR6" s="20">
-        <v>6.0423109383986296E-4</v>
+        <v>6.6830048182546444E-4</v>
       </c>
       <c r="AS6" s="20">
-        <v>6.0439010202245234E-4</v>
+        <v>6.7817022656287932E-4</v>
       </c>
       <c r="AT6" s="20">
-        <v>6.0454915204930025E-4</v>
+        <v>6.8818573187331619E-4</v>
       </c>
       <c r="AU6" s="20">
-        <v>6.0470824393141838E-4</v>
+        <v>6.9834915041068989E-4</v>
       </c>
       <c r="AV6" s="20">
-        <v>6.0486737767982137E-4</v>
+        <v>7.086626666202206E-4</v>
       </c>
       <c r="AW6" s="20">
-        <v>6.0502655330552655E-4</v>
+        <v>7.1912849720794114E-4</v>
       </c>
       <c r="AX6" s="20">
-        <v>6.0518577081955429E-4</v>
+        <v>7.2974889161713863E-4</v>
       </c>
       <c r="AY6" s="20">
-        <v>6.0534503023292779E-4</v>
+        <v>7.4052613251183194E-4</v>
       </c>
       <c r="AZ6" s="20">
-        <v>6.0550433155667327E-4</v>
+        <v>7.5146253626738938E-4</v>
       </c>
       <c r="BA6" s="20">
-        <v>6.0566367480181967E-4</v>
+        <v>7.6820328164999918E-4</v>
       </c>
       <c r="BB6" s="20">
-        <v>6.0582305997939907E-4</v>
+        <v>7.8531696985070006E-4</v>
       </c>
       <c r="BC6" s="20">
-        <v>6.0598248710044627E-4</v>
+        <v>8.0281190912234366E-4</v>
       </c>
       <c r="BD6" s="20">
-        <v>6.0614195617599898E-4</v>
+        <v>8.2069659280531286E-4</v>
       </c>
       <c r="BE6" s="20">
-        <v>6.0630146721709786E-4</v>
+        <v>8.3897970345081876E-4</v>
       </c>
       <c r="BF6" s="20">
-        <v>6.0646102023478648E-4</v>
+        <v>8.576701170360544E-4</v>
       </c>
       <c r="BG6" s="20">
-        <v>6.0662061524011134E-4</v>
+        <v>8.767769072732523E-4</v>
       </c>
       <c r="BH6" s="20">
-        <v>6.0678025224412187E-4</v>
+        <v>8.96309350014737E-4</v>
       </c>
       <c r="BI6" s="20">
-        <v>6.0693993125787021E-4</v>
+        <v>9.1627692775611102E-4</v>
       </c>
       <c r="BJ6" s="20">
-        <v>6.0709965229241165E-4</v>
+        <v>9.3668933423976173E-4</v>
       </c>
       <c r="BK6" s="20">
-        <v>6.0725941535880428E-4</v>
+        <v>9.5755647916092191E-4</v>
       </c>
       <c r="BL6" s="20">
-        <v>6.0741922046810915E-4</v>
+        <v>9.7888849297857075E-4</v>
       </c>
       <c r="BM6" s="20">
-        <v>6.075790676313902E-4</v>
+        <v>1.0006957318335094E-3</v>
       </c>
       <c r="BN6" s="20">
-        <v>6.0773895685971421E-4</v>
+        <v>1.0229887825759995E-3</v>
       </c>
       <c r="BO6" s="20">
-        <v>6.0789888816415089E-4</v>
+        <v>1.045778467905405E-3</v>
       </c>
       <c r="BP6" s="20">
-        <v>6.0805886155577298E-4</v>
+        <v>1.069075851624333E-3</v>
       </c>
       <c r="BQ6" s="20">
-        <v>6.0821887704565604E-4</v>
+        <v>1.092892244009823E-3</v>
       </c>
       <c r="BR6" s="20">
-        <v>6.0837893464487855E-4</v>
+        <v>1.1172392073041945E-3</v>
       </c>
       <c r="BS6" s="20">
-        <v>6.0853903436452193E-4</v>
+        <v>1.1421285613282164E-3</v>
       </c>
       <c r="BT6" s="20">
-        <v>6.086991762156704E-4</v>
+        <v>1.1675723892193234E-3</v>
       </c>
     </row>
     <row r="7" spans="1:72">
@@ -3158,178 +3158,178 @@
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
       <c r="O7" s="16">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="P7" s="16">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="Q7" s="16">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="R7" s="16">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="S7" s="16">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="T7" s="16">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="U7" s="16">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="V7" s="16">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="W7" s="16">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="X7" s="16">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="Y7" s="16">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="Z7" s="16">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="AA7" s="16">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="AB7" s="16">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="AC7" s="16">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="AD7" s="16">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="AE7" s="16">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="AF7" s="16">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="AG7" s="16">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="AH7" s="16">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="AI7" s="16">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="AJ7" s="16">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="AK7" s="23">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="AL7" s="23">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="AM7" s="25">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="AN7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="AO7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="AP7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="AQ7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="AR7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="AS7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="AT7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="AU7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="AV7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="AW7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="AX7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="AY7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="AZ7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="BA7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="BB7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="BC7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="BD7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="BE7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="BF7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="BG7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="BH7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="BI7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="BJ7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="BK7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="BL7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="BM7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="BN7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="BO7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="BP7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="BQ7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="BR7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="BS7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="BT7" s="20">
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
     </row>
     <row r="8" spans="1:72">
@@ -4211,157 +4211,157 @@
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
       <c r="V12" s="16">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="W12" s="16">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="X12" s="16">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="Y12" s="16">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="Z12" s="16">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="AA12" s="16">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="AB12" s="16">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="AC12" s="16">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="AD12" s="16">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="AE12" s="16">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="AF12" s="16">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="AG12" s="16">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="AH12" s="16">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="AI12" s="16">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="AJ12" s="16">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="AK12" s="23">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="AL12" s="23">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="AM12" s="25">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="AN12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="AO12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="AP12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="AQ12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="AR12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="AS12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="AT12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="AU12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="AV12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="AW12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="AX12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="AY12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="AZ12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="BA12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="BB12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="BC12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="BD12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="BE12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="BF12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="BG12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="BH12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="BI12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="BJ12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="BK12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="BL12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="BM12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="BN12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="BO12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="BP12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="BQ12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="BR12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="BS12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="BT12" s="20">
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
     </row>
     <row r="13" spans="1:72">
@@ -5174,7 +5174,7 @@
       </c>
       <c r="E4" s="27">
         <f>'BHNVFEAL data'!AM6*'Calibration Adjustments'!E21</f>
-        <v>6.0343668020558983E-4</v>
+        <v>6.2106499150318462E-4</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5246,31 +5246,31 @@
       </c>
       <c r="B7" s="11">
         <f>$D7/(1-'Calculations Etc'!$B$2)*'Calibration Adjustments'!B24</f>
-        <v>1.9004405332531829E-3</v>
+        <v>2.7171342690831789E-3</v>
       </c>
       <c r="C7" s="11">
         <f>$D7*'Calibration Adjustments'!C24</f>
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="D7" s="26">
         <f>'BHNVFEAL data'!AM12*'Calibration Adjustments'!D24</f>
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="E7" s="11">
         <f>$D7*'Calibration Adjustments'!E24</f>
-        <v>5.9683256416215671E-4</v>
+        <v>8.5331489442281672E-4</v>
       </c>
       <c r="F7" s="11">
         <f>$D7/(1-'Calculations Etc'!$B$2)*'Calculations Etc'!$B$6+$D7*(1-'Calculations Etc'!$B$6)*'Calibration Adjustments'!F24</f>
-        <v>1.3138169471622213E-3</v>
+        <v>1.878415550486016E-3</v>
       </c>
       <c r="G7" s="16">
         <f>AVERAGE('BHNVFEAL data'!AA12:AJ12)*'Calibration Adjustments'!G24</f>
-        <v>5.968325641621566E-4</v>
+        <v>8.5331489442281683E-4</v>
       </c>
       <c r="H7" s="11">
         <f>D7*'Calculations Etc'!$B$11</f>
-        <v>1.4920814104053917E-3</v>
+        <v>2.1332872360570417E-3</v>
       </c>
     </row>
   </sheetData>
@@ -5406,7 +5406,7 @@
       </c>
       <c r="E4" s="29">
         <f>'BHNVFEAL data'!AM7*'Calibration Adjustments'!E30</f>
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238047E-4</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="H4">
         <f>AVERAGE('BHNVFEAL data'!R7:AK7)*'Calibration Adjustments'!H30</f>
-        <v>3.7161983445238052E-7</v>
+        <v>3.7161983445238052E-4</v>
       </c>
     </row>
     <row r="5" spans="1:8">

--- a/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
+++ b/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Brazil\Model\InputData\trans\SYFAFE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-brazil\InputData\trans\SYFAFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92D77CA-C4C2-4D56-A370-614A1823CAFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="705" windowWidth="16733" windowHeight="9173" tabRatio="742" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="705" yWindow="705" windowWidth="16733" windowHeight="9173" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,7 +36,7 @@
     <definedName name="ti_tbl_69" localSheetId="5">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -252,7 +251,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1199,159 +1198,159 @@
     <xf numFmtId="11" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="153">
-    <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - Accent2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Accent3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Accent4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Accent5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Accent6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - Accent1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - Accent3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - Accent4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - Accent5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - Accent6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Accent1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Accent2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Accent3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Accent4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Accent5 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Accent6 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Bad 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Body: normal cell 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Calculation 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Check Cell 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Column heading" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Comma 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Comma 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Comma 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Comma 4" xfId="40" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Comma 5" xfId="41" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Comma 6" xfId="42" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Comma 7" xfId="43" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Comma 8" xfId="44" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Corner heading" xfId="45" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Currency 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Currency 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Currency 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Data" xfId="49" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Data 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Data no deci" xfId="51" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Data Superscript" xfId="52" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="53" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Explanatory Text 2" xfId="54" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Footnotes: top row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Good 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Heading 1 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Heading 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Heading 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Heading 4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Hed Side" xfId="63" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Hed Side 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Hed Side bold" xfId="65" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="Hed Side Indent" xfId="66" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="Hed Side Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="68" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Hed Top" xfId="69" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="Hed Top - SECTION" xfId="70" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="Hed Top_3-new4" xfId="71" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="Hyperlink 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="Input 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="Linked Cell 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="Neutral 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="8"/>
+    <cellStyle name="20% - Accent2 2" xfId="9"/>
+    <cellStyle name="20% - Accent3 2" xfId="10"/>
+    <cellStyle name="20% - Accent4 2" xfId="11"/>
+    <cellStyle name="20% - Accent5 2" xfId="12"/>
+    <cellStyle name="20% - Accent6 2" xfId="13"/>
+    <cellStyle name="40% - Accent1 2" xfId="14"/>
+    <cellStyle name="40% - Accent2 2" xfId="15"/>
+    <cellStyle name="40% - Accent3 2" xfId="16"/>
+    <cellStyle name="40% - Accent4 2" xfId="17"/>
+    <cellStyle name="40% - Accent5 2" xfId="18"/>
+    <cellStyle name="40% - Accent6 2" xfId="19"/>
+    <cellStyle name="60% - Accent1 2" xfId="20"/>
+    <cellStyle name="60% - Accent2 2" xfId="21"/>
+    <cellStyle name="60% - Accent3 2" xfId="22"/>
+    <cellStyle name="60% - Accent4 2" xfId="23"/>
+    <cellStyle name="60% - Accent5 2" xfId="24"/>
+    <cellStyle name="60% - Accent6 2" xfId="25"/>
+    <cellStyle name="Accent1 2" xfId="26"/>
+    <cellStyle name="Accent2 2" xfId="27"/>
+    <cellStyle name="Accent3 2" xfId="28"/>
+    <cellStyle name="Accent4 2" xfId="29"/>
+    <cellStyle name="Accent5 2" xfId="30"/>
+    <cellStyle name="Accent6 2" xfId="31"/>
+    <cellStyle name="Bad 2" xfId="32"/>
+    <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Body: normal cell 2" xfId="33"/>
+    <cellStyle name="Calculation 2" xfId="34"/>
+    <cellStyle name="Check Cell 2" xfId="35"/>
+    <cellStyle name="Column heading" xfId="36"/>
+    <cellStyle name="Comma 2" xfId="37"/>
+    <cellStyle name="Comma 2 2" xfId="38"/>
+    <cellStyle name="Comma 3" xfId="39"/>
+    <cellStyle name="Comma 4" xfId="40"/>
+    <cellStyle name="Comma 5" xfId="41"/>
+    <cellStyle name="Comma 6" xfId="42"/>
+    <cellStyle name="Comma 7" xfId="43"/>
+    <cellStyle name="Comma 8" xfId="44"/>
+    <cellStyle name="Corner heading" xfId="45"/>
+    <cellStyle name="Currency 2" xfId="46"/>
+    <cellStyle name="Currency 3" xfId="47"/>
+    <cellStyle name="Currency 3 2" xfId="48"/>
+    <cellStyle name="Data" xfId="49"/>
+    <cellStyle name="Data 2" xfId="50"/>
+    <cellStyle name="Data no deci" xfId="51"/>
+    <cellStyle name="Data Superscript" xfId="52"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="53"/>
+    <cellStyle name="Explanatory Text 2" xfId="54"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55"/>
+    <cellStyle name="Footnotes: top row" xfId="2"/>
+    <cellStyle name="Footnotes: top row 2" xfId="56"/>
+    <cellStyle name="Good 2" xfId="57"/>
+    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Header: bottom row 2" xfId="58"/>
+    <cellStyle name="Heading 1 2" xfId="59"/>
+    <cellStyle name="Heading 2 2" xfId="60"/>
+    <cellStyle name="Heading 3 2" xfId="61"/>
+    <cellStyle name="Heading 4 2" xfId="62"/>
+    <cellStyle name="Hed Side" xfId="63"/>
+    <cellStyle name="Hed Side 2" xfId="64"/>
+    <cellStyle name="Hed Side bold" xfId="65"/>
+    <cellStyle name="Hed Side Indent" xfId="66"/>
+    <cellStyle name="Hed Side Regular" xfId="67"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="68"/>
+    <cellStyle name="Hed Top" xfId="69"/>
+    <cellStyle name="Hed Top - SECTION" xfId="70"/>
+    <cellStyle name="Hed Top_3-new4" xfId="71"/>
+    <cellStyle name="Hyperlink 2" xfId="72"/>
+    <cellStyle name="Input 2" xfId="73"/>
+    <cellStyle name="Linked Cell 2" xfId="74"/>
+    <cellStyle name="Neutral 2" xfId="75"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="76" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="Normal 11" xfId="77" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Normal 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="Normal 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Normal 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Normal 3 2 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="Normal 3 2 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="Normal 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="Normal 3 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="Normal 3 3 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="Normal 3 4" xfId="89" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="Normal 3 4 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="Normal 3 5" xfId="91" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="Normal 3 6" xfId="92" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="Normal 3 7" xfId="93" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="Normal 4" xfId="94" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="Normal 4 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="Normal 4 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Normal 4 2 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="Normal 4 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="Normal 4 3 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="Normal 4 3 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="Normal 4 4" xfId="103" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="Normal 4 4 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="Normal 4 5" xfId="105" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="Normal 4 6" xfId="106" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="Normal 4 7" xfId="107" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="Normal 5 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="Normal 5 3" xfId="110" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="Normal 6" xfId="111" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="Normal 6 2" xfId="112" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="Normal 7" xfId="113" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="Normal 7 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="Normal 8" xfId="115" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="Normal 9" xfId="116" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="Note 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="Note 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="Output 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="Parent row 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="Percent 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="Percent 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="Percent 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="Percent 3 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="Percent 4" xfId="125" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="Reference" xfId="126" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="Row heading" xfId="127" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="Source Hed" xfId="128" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="Source Letter" xfId="129" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="Source Superscript" xfId="130" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="Source Superscript 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="Source Text" xfId="132" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="Source Text 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="State" xfId="134" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="Superscript" xfId="135" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="Table Data" xfId="136" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="Table Head Top" xfId="137" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="Table Hed Side" xfId="138" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="Table title 2" xfId="139" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="Title 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="Title Text" xfId="141" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="Title Text 1" xfId="142" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="Title Text 2" xfId="143" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="Title-1" xfId="144" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="Title-2" xfId="145" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="Title-3" xfId="146" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="Total 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="Warning Text 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="Wrap" xfId="149" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="Wrap Bold" xfId="150" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="Wrap Title" xfId="151" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="Wrap_NTS99-~11" xfId="152" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Normal 10" xfId="76"/>
+    <cellStyle name="Normal 11" xfId="77"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="78"/>
+    <cellStyle name="Normal 2 3" xfId="79"/>
+    <cellStyle name="Normal 3" xfId="80"/>
+    <cellStyle name="Normal 3 2" xfId="81"/>
+    <cellStyle name="Normal 3 2 2" xfId="82"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="83"/>
+    <cellStyle name="Normal 3 2 3" xfId="84"/>
+    <cellStyle name="Normal 3 3" xfId="85"/>
+    <cellStyle name="Normal 3 3 2" xfId="86"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="87"/>
+    <cellStyle name="Normal 3 3 3" xfId="88"/>
+    <cellStyle name="Normal 3 4" xfId="89"/>
+    <cellStyle name="Normal 3 4 2" xfId="90"/>
+    <cellStyle name="Normal 3 5" xfId="91"/>
+    <cellStyle name="Normal 3 6" xfId="92"/>
+    <cellStyle name="Normal 3 7" xfId="93"/>
+    <cellStyle name="Normal 4" xfId="94"/>
+    <cellStyle name="Normal 4 2" xfId="95"/>
+    <cellStyle name="Normal 4 2 2" xfId="96"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="97"/>
+    <cellStyle name="Normal 4 2 3" xfId="98"/>
+    <cellStyle name="Normal 4 3" xfId="99"/>
+    <cellStyle name="Normal 4 3 2" xfId="100"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="101"/>
+    <cellStyle name="Normal 4 3 3" xfId="102"/>
+    <cellStyle name="Normal 4 4" xfId="103"/>
+    <cellStyle name="Normal 4 4 2" xfId="104"/>
+    <cellStyle name="Normal 4 5" xfId="105"/>
+    <cellStyle name="Normal 4 6" xfId="106"/>
+    <cellStyle name="Normal 4 7" xfId="107"/>
+    <cellStyle name="Normal 5" xfId="108"/>
+    <cellStyle name="Normal 5 2" xfId="109"/>
+    <cellStyle name="Normal 5 3" xfId="110"/>
+    <cellStyle name="Normal 6" xfId="111"/>
+    <cellStyle name="Normal 6 2" xfId="112"/>
+    <cellStyle name="Normal 7" xfId="113"/>
+    <cellStyle name="Normal 7 2" xfId="114"/>
+    <cellStyle name="Normal 8" xfId="115"/>
+    <cellStyle name="Normal 9" xfId="116"/>
+    <cellStyle name="Note 2" xfId="117"/>
+    <cellStyle name="Note 2 2" xfId="118"/>
+    <cellStyle name="Output 2" xfId="119"/>
+    <cellStyle name="Parent row" xfId="3"/>
+    <cellStyle name="Parent row 2" xfId="120"/>
+    <cellStyle name="Percent 2" xfId="121"/>
+    <cellStyle name="Percent 2 2" xfId="122"/>
+    <cellStyle name="Percent 3" xfId="123"/>
+    <cellStyle name="Percent 3 2" xfId="124"/>
+    <cellStyle name="Percent 4" xfId="125"/>
+    <cellStyle name="Reference" xfId="126"/>
+    <cellStyle name="Row heading" xfId="127"/>
+    <cellStyle name="Source Hed" xfId="128"/>
+    <cellStyle name="Source Letter" xfId="129"/>
+    <cellStyle name="Source Superscript" xfId="130"/>
+    <cellStyle name="Source Superscript 2" xfId="131"/>
+    <cellStyle name="Source Text" xfId="132"/>
+    <cellStyle name="Source Text 2" xfId="133"/>
+    <cellStyle name="State" xfId="134"/>
+    <cellStyle name="Superscript" xfId="135"/>
+    <cellStyle name="Table Data" xfId="136"/>
+    <cellStyle name="Table Head Top" xfId="137"/>
+    <cellStyle name="Table Hed Side" xfId="138"/>
+    <cellStyle name="Table title" xfId="7"/>
+    <cellStyle name="Table title 2" xfId="139"/>
+    <cellStyle name="Title 2" xfId="140"/>
+    <cellStyle name="Title Text" xfId="141"/>
+    <cellStyle name="Title Text 1" xfId="142"/>
+    <cellStyle name="Title Text 2" xfId="143"/>
+    <cellStyle name="Title-1" xfId="144"/>
+    <cellStyle name="Title-2" xfId="145"/>
+    <cellStyle name="Title-3" xfId="146"/>
+    <cellStyle name="Total 2" xfId="147"/>
+    <cellStyle name="Warning Text 2" xfId="148"/>
+    <cellStyle name="Wrap" xfId="149"/>
+    <cellStyle name="Wrap Bold" xfId="150"/>
+    <cellStyle name="Wrap Title" xfId="151"/>
+    <cellStyle name="Wrap_NTS99-~11" xfId="152"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1523,23 +1522,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1575,23 +1557,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1767,10 +1732,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -1879,7 +1844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1979,12 +1944,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M19" sqref="M19"/>
+      <selection pane="topRight" sqref="A1:BT13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2964,178 +2929,178 @@
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="16">
-        <v>6.2106499150318462E-4</v>
+        <v>6.1890223381182868E-4</v>
       </c>
       <c r="P6" s="16">
-        <v>6.2106499150318462E-4</v>
+        <v>6.1890223381182868E-4</v>
       </c>
       <c r="Q6" s="16">
-        <v>6.2106499150318462E-4</v>
+        <v>6.1890223381182868E-4</v>
       </c>
       <c r="R6" s="16">
-        <v>6.2106499150318462E-4</v>
+        <v>6.1890223381182868E-4</v>
       </c>
       <c r="S6" s="16">
-        <v>6.2106499150318462E-4</v>
+        <v>6.1890223381182868E-4</v>
       </c>
       <c r="T6" s="16">
-        <v>6.2106499150318462E-4</v>
+        <v>6.1890223381182868E-4</v>
       </c>
       <c r="U6" s="16">
-        <v>6.2106499150318462E-4</v>
+        <v>6.1890223381182868E-4</v>
       </c>
       <c r="V6" s="16">
-        <v>6.2106499150318462E-4</v>
+        <v>6.1890223381182868E-4</v>
       </c>
       <c r="W6" s="16">
-        <v>6.2106499150318462E-4</v>
+        <v>6.1890223381182868E-4</v>
       </c>
       <c r="X6" s="16">
-        <v>6.2106499150318462E-4</v>
+        <v>6.1890223381182868E-4</v>
       </c>
       <c r="Y6" s="16">
-        <v>6.2106499150318462E-4</v>
+        <v>6.1890223381182868E-4</v>
       </c>
       <c r="Z6" s="16">
-        <v>6.2106499150318462E-4</v>
+        <v>6.1890223381182868E-4</v>
       </c>
       <c r="AA6" s="16">
-        <v>6.2106499150318462E-4</v>
+        <v>6.1890223381182868E-4</v>
       </c>
       <c r="AB6" s="16">
-        <v>6.2106499150318462E-4</v>
+        <v>6.1890223381182868E-4</v>
       </c>
       <c r="AC6" s="16">
-        <v>6.2106499150318462E-4</v>
+        <v>6.1890223381182868E-4</v>
       </c>
       <c r="AD6" s="16">
-        <v>6.2106499150318462E-4</v>
+        <v>6.1890223381182868E-4</v>
       </c>
       <c r="AE6" s="16">
-        <v>6.2106499150318462E-4</v>
+        <v>6.1890223381182868E-4</v>
       </c>
       <c r="AF6" s="16">
-        <v>6.2106499150318462E-4</v>
+        <v>6.1890223381182868E-4</v>
       </c>
       <c r="AG6" s="16">
-        <v>6.2106499150318462E-4</v>
+        <v>6.1890223381182868E-4</v>
       </c>
       <c r="AH6" s="16">
-        <v>6.2106499150318462E-4</v>
+        <v>6.1890223381182868E-4</v>
       </c>
       <c r="AI6" s="16">
-        <v>6.2106499150318462E-4</v>
+        <v>6.1890223381182868E-4</v>
       </c>
       <c r="AJ6" s="16">
-        <v>6.2106499150318462E-4</v>
+        <v>6.1890223381182868E-4</v>
       </c>
       <c r="AK6" s="23">
-        <v>6.2106499150318462E-4</v>
+        <v>6.1890223381182868E-4</v>
       </c>
       <c r="AL6" s="23">
-        <v>6.2106499150318462E-4</v>
+        <v>6.1890223381182868E-4</v>
       </c>
       <c r="AM6" s="25">
-        <v>6.2106499150318462E-4</v>
+        <v>6.1890223381182868E-4</v>
       </c>
       <c r="AN6" s="20">
-        <v>6.3023714250139693E-4</v>
+        <v>6.2694796285138238E-4</v>
       </c>
       <c r="AO6" s="20">
-        <v>6.395447517126545E-4</v>
+        <v>6.3509828636845028E-4</v>
       </c>
       <c r="AP6" s="20">
-        <v>6.4898981964125405E-4</v>
+        <v>6.4335456409124003E-4</v>
       </c>
       <c r="AQ6" s="20">
-        <v>6.5857437633578739E-4</v>
+        <v>6.517181734244261E-4</v>
       </c>
       <c r="AR6" s="20">
-        <v>6.6830048182546444E-4</v>
+        <v>6.6019050967894353E-4</v>
       </c>
       <c r="AS6" s="20">
-        <v>6.7817022656287932E-4</v>
+        <v>6.6877298630476972E-4</v>
       </c>
       <c r="AT6" s="20">
-        <v>6.8818573187331619E-4</v>
+        <v>6.7746703512673167E-4</v>
       </c>
       <c r="AU6" s="20">
-        <v>6.9834915041068989E-4</v>
+        <v>6.8627410658337912E-4</v>
       </c>
       <c r="AV6" s="20">
-        <v>7.086626666202206E-4</v>
+        <v>6.9519566996896303E-4</v>
       </c>
       <c r="AW6" s="20">
-        <v>7.1912849720794114E-4</v>
+        <v>7.0423321367855951E-4</v>
       </c>
       <c r="AX6" s="20">
-        <v>7.2974889161713863E-4</v>
+        <v>7.1338824545638072E-4</v>
       </c>
       <c r="AY6" s="20">
-        <v>7.4052613251183194E-4</v>
+        <v>7.2266229264731361E-4</v>
       </c>
       <c r="AZ6" s="20">
-        <v>7.5146253626738938E-4</v>
+        <v>7.3205690245172861E-4</v>
       </c>
       <c r="BA6" s="20">
-        <v>7.6820328164999918E-4</v>
+        <v>7.4157364218360104E-4</v>
       </c>
       <c r="BB6" s="20">
-        <v>7.8531696985070006E-4</v>
+        <v>7.5121409953198773E-4</v>
       </c>
       <c r="BC6" s="20">
-        <v>8.0281190912234366E-4</v>
+        <v>7.6097988282590348E-4</v>
       </c>
       <c r="BD6" s="20">
-        <v>8.2069659280531286E-4</v>
+        <v>7.7087262130264012E-4</v>
       </c>
       <c r="BE6" s="20">
-        <v>8.3897970345081876E-4</v>
+        <v>7.8089396537957441E-4</v>
       </c>
       <c r="BF6" s="20">
-        <v>8.576701170360544E-4</v>
+        <v>7.9104558692950878E-4</v>
       </c>
       <c r="BG6" s="20">
-        <v>8.767769072732523E-4</v>
+        <v>8.0132917955959228E-4</v>
       </c>
       <c r="BH6" s="20">
-        <v>8.96309350014737E-4</v>
+        <v>8.1174645889386693E-4</v>
       </c>
       <c r="BI6" s="20">
-        <v>9.1627692775611102E-4</v>
+        <v>8.2229916285948715E-4</v>
       </c>
       <c r="BJ6" s="20">
-        <v>9.3668933423976173E-4</v>
+        <v>8.3298905197666041E-4</v>
       </c>
       <c r="BK6" s="20">
-        <v>9.5755647916092191E-4</v>
+        <v>8.4381790965235687E-4</v>
       </c>
       <c r="BL6" s="20">
-        <v>9.7888849297857075E-4</v>
+        <v>8.5478754247783747E-4</v>
       </c>
       <c r="BM6" s="20">
-        <v>1.0006957318335094E-3</v>
+        <v>8.6589978053004928E-4</v>
       </c>
       <c r="BN6" s="20">
-        <v>1.0229887825759995E-3</v>
+        <v>8.7715647767693981E-4</v>
       </c>
       <c r="BO6" s="20">
-        <v>1.045778467905405E-3</v>
+        <v>8.8855951188673995E-4</v>
       </c>
       <c r="BP6" s="20">
-        <v>1.069075851624333E-3</v>
+        <v>9.0011078554126753E-4</v>
       </c>
       <c r="BQ6" s="20">
-        <v>1.092892244009823E-3</v>
+        <v>9.1181222575330387E-4</v>
       </c>
       <c r="BR6" s="20">
-        <v>1.1172392073041945E-3</v>
+        <v>9.2366578468809678E-4</v>
       </c>
       <c r="BS6" s="20">
-        <v>1.1421285613282164E-3</v>
+        <v>9.356734398890419E-4</v>
       </c>
       <c r="BT6" s="20">
-        <v>1.1675723892193234E-3</v>
+        <v>9.4783719460759933E-4</v>
       </c>
     </row>
     <row r="7" spans="1:72">
@@ -4569,7 +4534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -5046,7 +5011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -5174,7 +5139,7 @@
       </c>
       <c r="E4" s="27">
         <f>'BHNVFEAL data'!AM6*'Calibration Adjustments'!E21</f>
-        <v>6.2106499150318462E-4</v>
+        <v>6.1890223381182868E-4</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5279,7 +5244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
